--- a/Test Case/Poornima/Test Case- CAS.xlsx
+++ b/Test Case/Poornima/Test Case- CAS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.DESKTOP-QFL5U72.000.001.002.003.004.005\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E9CE3-F187-46AE-A0AB-A200C5A44C67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="430">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -299,16 +300,7 @@
     <t>Hospital should be selected</t>
   </si>
   <si>
-    <t>Hover on the slot and create an appoinment</t>
-  </si>
-  <si>
     <t>New Appointment pop-up should be displayed</t>
-  </si>
-  <si>
-    <t>Enter details for  all the mandatory fields and click on save</t>
-  </si>
-  <si>
-    <t>Appointment should be successfully created</t>
   </si>
   <si>
     <t>Title: Mr.
@@ -1341,11 +1333,104 @@
   <si>
     <t>Navigate to Home page</t>
   </si>
+  <si>
+    <t>MED_CAS_TC_0057</t>
+  </si>
+  <si>
+    <t>Test case to verify  whether a User can create a patient in MLC Patient</t>
+  </si>
+  <si>
+    <t>Click on MLC patient</t>
+  </si>
+  <si>
+    <t>User should be able to select MLC patient</t>
+  </si>
+  <si>
+    <t>Enter a value In MLC</t>
+  </si>
+  <si>
+    <t>User should be able to enter value in MLC</t>
+  </si>
+  <si>
+    <t>MED_CAS_TC_0058</t>
+  </si>
+  <si>
+    <t>Select the Applicataion Selector&gt;&gt; Appointment</t>
+  </si>
+  <si>
+    <t>Hover on the slot and click on 'Add Appointment 'option  /Click on specified time (11.30 am)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the hospital from drop down on the left pane
+for eg:Testing DHCC
+</t>
+  </si>
+  <si>
+    <t>Enter details for  all the mandatory fields 
+a.Title
+b.Patient
+c.Mobile
+and click on save</t>
+  </si>
+  <si>
+    <t>User should be ableto enter manadatory fields and Appointment should be successfully created</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on save </t>
+  </si>
+  <si>
+    <t>User should be able to save appoinment.Appoinment should be saved</t>
+  </si>
+  <si>
+    <t>"one Appoinment in clipboard" message should be dispplayed at the right side pane of the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hovering on the  another available slot and click paste appoinment </t>
+  </si>
+  <si>
+    <t>Cut/rescheduled appoinment should be paste at selected slot</t>
+  </si>
+  <si>
+    <t>MED_CAS_TC_0059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to verify whether Copying an appoinment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to verify whether Reschedule the appoinment </t>
+  </si>
+  <si>
+    <t>Hovering on the saved appoinment  slot and select Reschedule icon</t>
+  </si>
+  <si>
+    <t>Hovering on the saved appoinment  slot and select Copy Appoinment icon</t>
+  </si>
+  <si>
+    <t>Appoinment should be paste at the required slot and The patient should be also present at copyed slot</t>
+  </si>
+  <si>
+    <t>User should be able to save appoinment.Appoinment should be saved and New patient icon should be displayed</t>
+  </si>
+  <si>
+    <t>MED_CAS_TC_0060</t>
+  </si>
+  <si>
+    <t>Test case to verify whether a user can create an appoinment in back date</t>
+  </si>
+  <si>
+    <t>Select previous system date</t>
+  </si>
+  <si>
+    <t>user should be able to select the date and user should not be able to select the slots</t>
+  </si>
+  <si>
+    <t>Poonima John</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1528,9 +1613,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,6 +1620,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1854,19 +1939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C651" sqref="C651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" style="7" customWidth="1"/>
@@ -1915,14 +2000,14 @@
       <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="Q1" s="26" t="s">
+      <c r="O1" s="24"/>
+      <c r="Q1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="26"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1931,8 +2016,10 @@
       <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="6">
@@ -1956,7 +2043,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>12</v>
@@ -1970,7 +2057,7 @@
       <c r="A3" s="7"/>
       <c r="B3" s="17"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="6">
         <v>2</v>
       </c>
@@ -2006,7 +2093,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6">
         <v>3</v>
       </c>
@@ -2033,13 +2120,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="24"/>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="D5" s="27"/>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>88</v>
@@ -2055,33 +2142,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="24"/>
+    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="D6" s="27"/>
       <c r="E6" s="6">
         <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="D7" s="24"/>
+    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="D7" s="27"/>
       <c r="E7" s="6">
         <v>6</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9"/>
@@ -2105,8 +2192,14 @@
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>94</v>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -2125,7 +2218,7 @@
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="6">
         <v>2</v>
       </c>
@@ -2142,12 +2235,12 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="24"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>408</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>86</v>
@@ -2156,7 +2249,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="24"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="6">
         <v>4</v>
       </c>
@@ -2170,46 +2263,46 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="24"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="6">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="24"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="6">
         <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="24"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="6">
         <v>7</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="9"/>
@@ -2226,20 +2319,26 @@
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>102</v>
+      <c r="B19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="24"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="6">
         <v>2</v>
       </c>
@@ -2256,7 +2355,7 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="24"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="6">
         <v>3</v>
       </c>
@@ -2273,12 +2372,12 @@
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="6">
         <v>4</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>86</v>
@@ -2287,7 +2386,7 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="24"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="6">
         <v>5</v>
       </c>
@@ -2301,29 +2400,29 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="24"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="6">
         <v>6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="24"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="6">
         <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="9"/>
@@ -2340,8 +2439,14 @@
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>108</v>
+      <c r="B28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2359,7 +2464,7 @@
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D29" s="24"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="6">
         <v>2</v>
       </c>
@@ -2376,7 +2481,7 @@
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="6">
         <v>3</v>
       </c>
@@ -2391,7 +2496,7 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="24"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="6">
         <v>4</v>
       </c>
@@ -2406,88 +2511,88 @@
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="24"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="6">
         <v>5</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D33" s="24"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="6">
         <v>6</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="24"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="6">
         <v>7</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D35" s="24"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="6">
         <v>8</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D36" s="24"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="6">
         <v>9</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D37" s="24"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="6">
         <v>10</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="9"/>
@@ -2500,8 +2605,14 @@
       <c r="A39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>121</v>
+      <c r="B39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -2519,7 +2630,7 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="24"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="6">
         <v>2</v>
       </c>
@@ -2536,7 +2647,7 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="24"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="6">
         <v>3</v>
       </c>
@@ -2551,7 +2662,7 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="6">
         <v>4</v>
       </c>
@@ -2566,74 +2677,74 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D43" s="24"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="6">
         <v>5</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D44" s="24"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="6">
         <v>6</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D45" s="24"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="6">
         <v>7</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="24"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="6">
         <v>8</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="24"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="6">
         <v>9</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="9"/>
@@ -2650,8 +2761,14 @@
       <c r="A50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>125</v>
+      <c r="B50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -2669,7 +2786,7 @@
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="24"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="6">
         <v>2</v>
       </c>
@@ -2686,7 +2803,7 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D52" s="24"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="6">
         <v>3</v>
       </c>
@@ -2701,7 +2818,7 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="24"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="6">
         <v>4</v>
       </c>
@@ -2716,102 +2833,102 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D54" s="24"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="6">
         <v>5</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D55" s="24"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="6">
         <v>6</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D56" s="24"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="6">
         <v>7</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="24"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="6">
         <v>8</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D58" s="24"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="6">
         <v>9</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D59" s="24"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="6">
         <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D60" s="24"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="6">
         <v>11</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="9"/>
@@ -2828,8 +2945,14 @@
       <c r="A63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>131</v>
+      <c r="B63" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -2847,7 +2970,7 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D64" s="24"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="6">
         <v>2</v>
       </c>
@@ -2864,7 +2987,7 @@
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D65" s="24"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="6">
         <v>3</v>
       </c>
@@ -2878,7 +3001,7 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D66" s="24"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="6">
         <v>4</v>
       </c>
@@ -2892,88 +3015,88 @@
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="24"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="6">
         <v>5</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D68" s="24"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="6">
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D69" s="24"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="6">
         <v>7</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D70" s="24"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="6">
         <v>8</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D71" s="24"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="6">
         <v>9</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D72" s="24"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="6">
         <v>10</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="9"/>
@@ -2990,8 +3113,14 @@
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>133</v>
+      <c r="B75" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
@@ -3009,7 +3138,7 @@
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="24"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="6">
         <v>2</v>
       </c>
@@ -3026,7 +3155,7 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="24"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="6">
         <v>3</v>
       </c>
@@ -3040,7 +3169,7 @@
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D78" s="24"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="6">
         <v>4</v>
       </c>
@@ -3054,88 +3183,88 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D79" s="24"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="6">
         <v>5</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D80" s="24"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="6">
         <v>6</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="24"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="6">
         <v>7</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D82" s="24"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="6">
         <v>8</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D83" s="24"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="6">
         <v>9</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D84" s="24"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="6">
         <v>10</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="9"/>
@@ -3152,8 +3281,14 @@
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>137</v>
+      <c r="B87" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -3171,7 +3306,7 @@
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D88" s="24"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="6">
         <v>2</v>
       </c>
@@ -3188,7 +3323,7 @@
       <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D89" s="24"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="6">
         <v>3</v>
       </c>
@@ -3202,7 +3337,7 @@
       <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D90" s="24"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="6">
         <v>4</v>
       </c>
@@ -3216,102 +3351,102 @@
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D91" s="24"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="6">
         <v>5</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D92" s="24"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="6">
         <v>6</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D93" s="24"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="6">
         <v>7</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D94" s="24"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="6">
         <v>8</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="24"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="6">
         <v>9</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="24"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="6">
         <v>10</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D97" s="24"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="6">
         <v>11</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="9"/>
@@ -3328,14 +3463,20 @@
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="24" t="s">
-        <v>140</v>
+      <c r="B100" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>80</v>
@@ -3347,7 +3488,7 @@
       <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D101" s="24"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="6">
         <v>2</v>
       </c>
@@ -3364,7 +3505,7 @@
       <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D102" s="24"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="6">
         <v>3</v>
       </c>
@@ -3378,7 +3519,7 @@
       <c r="K102" s="9"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D103" s="24"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="6">
         <v>4</v>
       </c>
@@ -3392,116 +3533,116 @@
       <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D104" s="24"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="6">
         <v>5</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="9"/>
     </row>
     <row r="105" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D105" s="24"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="6">
         <v>6</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="24"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="6">
         <v>7</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D107" s="24"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="6">
         <v>8</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D108" s="24"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="6">
         <v>9</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D109" s="24"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="6">
         <v>10</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D110" s="24"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="6">
         <v>11</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D111" s="24"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="6">
         <v>12</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="9"/>
@@ -3518,14 +3659,20 @@
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>153</v>
+      <c r="B114" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>80</v>
@@ -3537,7 +3684,7 @@
       <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D115" s="24"/>
+      <c r="D115" s="27"/>
       <c r="E115" s="6">
         <v>2</v>
       </c>
@@ -3554,7 +3701,7 @@
       <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D116" s="24"/>
+      <c r="D116" s="27"/>
       <c r="E116" s="6">
         <v>3</v>
       </c>
@@ -3568,7 +3715,7 @@
       <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D117" s="24"/>
+      <c r="D117" s="27"/>
       <c r="E117" s="6">
         <v>4</v>
       </c>
@@ -3582,74 +3729,74 @@
       <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D118" s="24"/>
+      <c r="D118" s="27"/>
       <c r="E118" s="6">
         <v>5</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D119" s="24"/>
+      <c r="D119" s="27"/>
       <c r="E119" s="6">
         <v>6</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J119" s="5"/>
       <c r="K119" s="9"/>
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D120" s="24"/>
+      <c r="D120" s="27"/>
       <c r="E120" s="6">
         <v>7</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="9"/>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D121" s="24"/>
+      <c r="D121" s="27"/>
       <c r="E121" s="6">
         <v>8</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="9"/>
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D122" s="24"/>
+      <c r="D122" s="27"/>
       <c r="E122" s="6">
         <v>9</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="9"/>
@@ -3661,10 +3808,10 @@
         <v>10</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="9"/>
@@ -3674,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="9"/>
@@ -3690,14 +3837,20 @@
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>154</v>
+      <c r="B126" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>80</v>
@@ -3709,7 +3862,7 @@
       <c r="K126" s="9"/>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="24"/>
+      <c r="D127" s="27"/>
       <c r="E127" s="6">
         <v>2</v>
       </c>
@@ -3726,7 +3879,7 @@
       <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D128" s="24"/>
+      <c r="D128" s="27"/>
       <c r="E128" s="6">
         <v>3</v>
       </c>
@@ -3740,7 +3893,7 @@
       <c r="K128" s="9"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D129" s="24"/>
+      <c r="D129" s="27"/>
       <c r="E129" s="6">
         <v>4</v>
       </c>
@@ -3754,116 +3907,116 @@
       <c r="K129" s="9"/>
     </row>
     <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D130" s="24"/>
+      <c r="D130" s="27"/>
       <c r="E130" s="6">
         <v>5</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D131" s="24"/>
+      <c r="D131" s="27"/>
       <c r="E131" s="6">
         <v>6</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="24"/>
+      <c r="D132" s="27"/>
       <c r="E132" s="6">
         <v>7</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D133" s="24"/>
+      <c r="D133" s="27"/>
       <c r="E133" s="6">
         <v>8</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D134" s="24"/>
+      <c r="D134" s="27"/>
       <c r="E134" s="6">
         <v>9</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="9"/>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D135" s="24"/>
+      <c r="D135" s="27"/>
       <c r="E135" s="6">
         <v>10</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="9"/>
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="24"/>
+      <c r="D136" s="27"/>
       <c r="E136" s="6">
         <v>11</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J136" s="5"/>
       <c r="K136" s="9"/>
     </row>
     <row r="137" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D137" s="24"/>
+      <c r="D137" s="27"/>
       <c r="E137" s="6">
         <v>12</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="9"/>
@@ -3880,14 +4033,20 @@
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D140" s="24" t="s">
-        <v>156</v>
+      <c r="B140" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="E140" s="6">
         <v>1</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>80</v>
@@ -3899,7 +4058,7 @@
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D141" s="24"/>
+      <c r="D141" s="27"/>
       <c r="E141" s="6">
         <v>2</v>
       </c>
@@ -3916,7 +4075,7 @@
       <c r="K141" s="9"/>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D142" s="24"/>
+      <c r="D142" s="27"/>
       <c r="E142" s="6">
         <v>3</v>
       </c>
@@ -3930,7 +4089,7 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D143" s="24"/>
+      <c r="D143" s="27"/>
       <c r="E143" s="6">
         <v>4</v>
       </c>
@@ -3944,102 +4103,102 @@
       <c r="K143" s="9"/>
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D144" s="24"/>
+      <c r="D144" s="27"/>
       <c r="E144" s="6">
         <v>5</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J144" s="5"/>
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D145" s="24"/>
+      <c r="D145" s="27"/>
       <c r="E145" s="6">
         <v>6</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="9"/>
     </row>
     <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D146" s="24"/>
+      <c r="D146" s="27"/>
       <c r="E146" s="6">
         <v>7</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D147" s="24"/>
+      <c r="D147" s="27"/>
       <c r="E147" s="6">
         <v>8</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D148" s="24"/>
+      <c r="D148" s="27"/>
       <c r="E148" s="6">
         <v>9</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J148" s="5"/>
       <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D149" s="24"/>
+      <c r="D149" s="27"/>
       <c r="E149" s="6">
         <v>10</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J149" s="5"/>
       <c r="K149" s="9"/>
     </row>
     <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D150" s="24"/>
+      <c r="D150" s="27"/>
       <c r="E150" s="6">
         <v>11</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="9"/>
@@ -4056,14 +4215,20 @@
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D153" s="24" t="s">
-        <v>158</v>
+      <c r="B153" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="E153" s="6">
         <v>1</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>80</v>
@@ -4075,7 +4240,7 @@
       <c r="K153" s="9"/>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D154" s="24"/>
+      <c r="D154" s="27"/>
       <c r="E154" s="6">
         <v>2</v>
       </c>
@@ -4092,7 +4257,7 @@
       <c r="K154" s="9"/>
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D155" s="24"/>
+      <c r="D155" s="27"/>
       <c r="E155" s="6">
         <v>3</v>
       </c>
@@ -4106,7 +4271,7 @@
       <c r="K155" s="9"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D156" s="24"/>
+      <c r="D156" s="27"/>
       <c r="E156" s="6">
         <v>4</v>
       </c>
@@ -4120,102 +4285,102 @@
       <c r="K156" s="9"/>
     </row>
     <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D157" s="24"/>
+      <c r="D157" s="27"/>
       <c r="E157" s="6">
         <v>5</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="9"/>
     </row>
     <row r="158" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D158" s="24"/>
+      <c r="D158" s="27"/>
       <c r="E158" s="6">
         <v>6</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="9"/>
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D159" s="24"/>
+      <c r="D159" s="27"/>
       <c r="E159" s="6">
         <v>7</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="9"/>
     </row>
     <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D160" s="24"/>
+      <c r="D160" s="27"/>
       <c r="E160" s="6">
         <v>8</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="9"/>
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D161" s="24"/>
+      <c r="D161" s="27"/>
       <c r="E161" s="6">
         <v>9</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="9"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="24"/>
+      <c r="D162" s="27"/>
       <c r="E162" s="6">
         <v>10</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="9"/>
     </row>
     <row r="163" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D163" s="24"/>
+      <c r="D163" s="27"/>
       <c r="E163" s="6">
         <v>11</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="9"/>
@@ -4232,14 +4397,20 @@
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D166" s="24" t="s">
-        <v>161</v>
+      <c r="B166" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="E166" s="6">
         <v>1</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>80</v>
@@ -4251,7 +4422,7 @@
       <c r="K166" s="9"/>
     </row>
     <row r="167" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D167" s="24"/>
+      <c r="D167" s="27"/>
       <c r="E167" s="6">
         <v>2</v>
       </c>
@@ -4268,7 +4439,7 @@
       <c r="K167" s="9"/>
     </row>
     <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D168" s="24"/>
+      <c r="D168" s="27"/>
       <c r="E168" s="6">
         <v>3</v>
       </c>
@@ -4282,7 +4453,7 @@
       <c r="K168" s="9"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D169" s="24"/>
+      <c r="D169" s="27"/>
       <c r="E169" s="6">
         <v>4</v>
       </c>
@@ -4296,116 +4467,116 @@
       <c r="K169" s="9"/>
     </row>
     <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D170" s="24"/>
+      <c r="D170" s="27"/>
       <c r="E170" s="6">
         <v>5</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="9"/>
     </row>
     <row r="171" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D171" s="24"/>
+      <c r="D171" s="27"/>
       <c r="E171" s="6">
         <v>6</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="9"/>
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D172" s="24"/>
+      <c r="D172" s="27"/>
       <c r="E172" s="6">
         <v>7</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="9"/>
     </row>
     <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D173" s="24"/>
+      <c r="D173" s="27"/>
       <c r="E173" s="6">
         <v>8</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="9"/>
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D174" s="24"/>
+      <c r="D174" s="27"/>
       <c r="E174" s="6">
         <v>9</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="9"/>
     </row>
     <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="24"/>
+      <c r="D175" s="27"/>
       <c r="E175" s="6">
         <v>10</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="9"/>
     </row>
     <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="24"/>
+      <c r="D176" s="27"/>
       <c r="E176" s="6">
         <v>11</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="9"/>
     </row>
     <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D177" s="24"/>
+      <c r="D177" s="27"/>
       <c r="E177" s="6">
         <v>12</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="9"/>
@@ -4422,14 +4593,20 @@
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D180" s="24" t="s">
-        <v>163</v>
+      <c r="B180" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="E180" s="6">
         <v>1</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>80</v>
@@ -4441,7 +4618,7 @@
       <c r="K180" s="9"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="24"/>
+      <c r="D181" s="27"/>
       <c r="E181" s="6">
         <v>2</v>
       </c>
@@ -4458,7 +4635,7 @@
       <c r="K181" s="9"/>
     </row>
     <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D182" s="24"/>
+      <c r="D182" s="27"/>
       <c r="E182" s="6">
         <v>3</v>
       </c>
@@ -4472,7 +4649,7 @@
       <c r="K182" s="9"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D183" s="24"/>
+      <c r="D183" s="27"/>
       <c r="E183" s="6">
         <v>4</v>
       </c>
@@ -4486,116 +4663,116 @@
       <c r="K183" s="9"/>
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D184" s="24"/>
+      <c r="D184" s="27"/>
       <c r="E184" s="6">
         <v>5</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="9"/>
     </row>
     <row r="185" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D185" s="24"/>
+      <c r="D185" s="27"/>
       <c r="E185" s="6">
         <v>6</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J185" s="5"/>
       <c r="K185" s="9"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="24"/>
+      <c r="D186" s="27"/>
       <c r="E186" s="6">
         <v>7</v>
       </c>
       <c r="F186" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J186" s="5"/>
       <c r="K186" s="9"/>
     </row>
     <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D187" s="24"/>
+      <c r="D187" s="27"/>
       <c r="E187" s="6">
         <v>8</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J187" s="5"/>
       <c r="K187" s="9"/>
     </row>
     <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D188" s="24"/>
+      <c r="D188" s="27"/>
       <c r="E188" s="6">
         <v>9</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J188" s="5"/>
       <c r="K188" s="9"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D189" s="24"/>
+      <c r="D189" s="27"/>
       <c r="E189" s="6">
         <v>10</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J189" s="5"/>
       <c r="K189" s="9"/>
     </row>
     <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="24"/>
+      <c r="D190" s="27"/>
       <c r="E190" s="6">
         <v>11</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J190" s="5"/>
       <c r="K190" s="9"/>
     </row>
     <row r="191" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D191" s="24"/>
+      <c r="D191" s="27"/>
       <c r="E191" s="6">
         <v>12</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J191" s="5"/>
       <c r="K191" s="9"/>
@@ -4612,14 +4789,20 @@
       <c r="A194" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D194" s="24" t="s">
-        <v>166</v>
+      <c r="B194" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="E194" s="6">
         <v>1</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>80</v>
@@ -4631,7 +4814,7 @@
       <c r="K194" s="9"/>
     </row>
     <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D195" s="24"/>
+      <c r="D195" s="27"/>
       <c r="E195" s="6">
         <v>2</v>
       </c>
@@ -4648,7 +4831,7 @@
       <c r="K195" s="9"/>
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D196" s="24"/>
+      <c r="D196" s="27"/>
       <c r="E196" s="6">
         <v>3</v>
       </c>
@@ -4662,7 +4845,7 @@
       <c r="K196" s="9"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D197" s="24"/>
+      <c r="D197" s="27"/>
       <c r="E197" s="6">
         <v>4</v>
       </c>
@@ -4676,102 +4859,102 @@
       <c r="K197" s="9"/>
     </row>
     <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D198" s="24"/>
+      <c r="D198" s="27"/>
       <c r="E198" s="6">
         <v>5</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="9"/>
     </row>
     <row r="199" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D199" s="24"/>
+      <c r="D199" s="27"/>
       <c r="E199" s="6">
         <v>6</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J199" s="5"/>
       <c r="K199" s="9"/>
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D200" s="24"/>
+      <c r="D200" s="27"/>
       <c r="E200" s="6">
         <v>7</v>
       </c>
       <c r="F200" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="9"/>
     </row>
     <row r="201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D201" s="24"/>
+      <c r="D201" s="27"/>
       <c r="E201" s="6">
         <v>8</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="9"/>
     </row>
     <row r="202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D202" s="24"/>
+      <c r="D202" s="27"/>
       <c r="E202" s="6">
         <v>9</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="9"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D203" s="24"/>
+      <c r="D203" s="27"/>
       <c r="E203" s="6">
         <v>10</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="9"/>
     </row>
     <row r="204" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D204" s="24"/>
+      <c r="D204" s="27"/>
       <c r="E204" s="6">
         <v>11</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="9"/>
@@ -4788,14 +4971,20 @@
       <c r="A207" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D207" s="24" t="s">
-        <v>167</v>
+      <c r="B207" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="E207" s="6">
         <v>1</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G207" s="7" t="s">
         <v>80</v>
@@ -4807,7 +4996,7 @@
       <c r="K207" s="9"/>
     </row>
     <row r="208" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="24"/>
+      <c r="D208" s="27"/>
       <c r="E208" s="6">
         <v>2</v>
       </c>
@@ -4824,7 +5013,7 @@
       <c r="K208" s="9"/>
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D209" s="24"/>
+      <c r="D209" s="27"/>
       <c r="E209" s="6">
         <v>3</v>
       </c>
@@ -4838,7 +5027,7 @@
       <c r="K209" s="9"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D210" s="24"/>
+      <c r="D210" s="27"/>
       <c r="E210" s="6">
         <v>4</v>
       </c>
@@ -4852,130 +5041,130 @@
       <c r="K210" s="9"/>
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D211" s="24"/>
+      <c r="D211" s="27"/>
       <c r="E211" s="6">
         <v>5</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J211" s="5"/>
       <c r="K211" s="9"/>
     </row>
     <row r="212" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D212" s="24"/>
+      <c r="D212" s="27"/>
       <c r="E212" s="6">
         <v>6</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="9"/>
     </row>
     <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D213" s="24"/>
+      <c r="D213" s="27"/>
       <c r="E213" s="6">
         <v>7</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="9"/>
     </row>
     <row r="214" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D214" s="24"/>
+      <c r="D214" s="27"/>
       <c r="E214" s="6">
         <v>8</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="9"/>
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D215" s="24"/>
+      <c r="D215" s="27"/>
       <c r="E215" s="6">
         <v>9</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="9"/>
     </row>
     <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D216" s="24"/>
+      <c r="D216" s="27"/>
       <c r="E216" s="6">
         <v>10</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="9"/>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D217" s="24"/>
+      <c r="D217" s="27"/>
       <c r="E217" s="6">
         <v>11</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="9"/>
     </row>
     <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="24"/>
+      <c r="D218" s="27"/>
       <c r="E218" s="6">
         <v>12</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="9"/>
     </row>
     <row r="219" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D219" s="24"/>
+      <c r="D219" s="27"/>
       <c r="E219" s="6">
         <v>13</v>
       </c>
       <c r="F219" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G219" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="9"/>
@@ -4992,14 +5181,20 @@
       <c r="A222" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D222" s="24" t="s">
-        <v>168</v>
+      <c r="B222" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="E222" s="6">
         <v>1</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>80</v>
@@ -5011,7 +5206,7 @@
       <c r="K222" s="9"/>
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D223" s="24"/>
+      <c r="D223" s="27"/>
       <c r="E223" s="6">
         <v>2</v>
       </c>
@@ -5028,7 +5223,7 @@
       <c r="K223" s="9"/>
     </row>
     <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="24"/>
+      <c r="D224" s="27"/>
       <c r="E224" s="6">
         <v>3</v>
       </c>
@@ -5042,7 +5237,7 @@
       <c r="K224" s="9"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D225" s="24"/>
+      <c r="D225" s="27"/>
       <c r="E225" s="6">
         <v>4</v>
       </c>
@@ -5056,116 +5251,116 @@
       <c r="K225" s="9"/>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D226" s="24"/>
+      <c r="D226" s="27"/>
       <c r="E226" s="6">
         <v>5</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J226" s="5"/>
       <c r="K226" s="9"/>
     </row>
     <row r="227" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D227" s="24"/>
+      <c r="D227" s="27"/>
       <c r="E227" s="6">
         <v>6</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J227" s="5"/>
       <c r="K227" s="9"/>
     </row>
     <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="24"/>
+      <c r="D228" s="27"/>
       <c r="E228" s="6">
         <v>7</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J228" s="5"/>
       <c r="K228" s="9"/>
     </row>
     <row r="229" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D229" s="24"/>
+      <c r="D229" s="27"/>
       <c r="E229" s="6">
         <v>8</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J229" s="5"/>
       <c r="K229" s="9"/>
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D230" s="24"/>
+      <c r="D230" s="27"/>
       <c r="E230" s="6">
         <v>9</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J230" s="5"/>
       <c r="K230" s="9"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="24"/>
+      <c r="D231" s="27"/>
       <c r="E231" s="6">
         <v>10</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J231" s="5"/>
       <c r="K231" s="9"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="24"/>
+      <c r="D232" s="27"/>
       <c r="E232" s="6">
         <v>11</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J232" s="5"/>
       <c r="K232" s="9"/>
     </row>
     <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D233" s="24"/>
+      <c r="D233" s="27"/>
       <c r="E233" s="6">
         <v>12</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J233" s="5"/>
       <c r="K233" s="9"/>
@@ -5182,14 +5377,20 @@
       <c r="A236" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D236" s="24" t="s">
-        <v>169</v>
+      <c r="B236" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="E236" s="6">
         <v>1</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G236" s="7" t="s">
         <v>80</v>
@@ -5201,7 +5402,7 @@
       <c r="K236" s="9"/>
     </row>
     <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D237" s="24"/>
+      <c r="D237" s="27"/>
       <c r="E237" s="6">
         <v>2</v>
       </c>
@@ -5218,7 +5419,7 @@
       <c r="K237" s="9"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D238" s="24"/>
+      <c r="D238" s="27"/>
       <c r="E238" s="6">
         <v>3</v>
       </c>
@@ -5232,7 +5433,7 @@
       <c r="K238" s="9"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D239" s="24"/>
+      <c r="D239" s="27"/>
       <c r="E239" s="6">
         <v>4</v>
       </c>
@@ -5246,116 +5447,116 @@
       <c r="K239" s="9"/>
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D240" s="24"/>
+      <c r="D240" s="27"/>
       <c r="E240" s="6">
         <v>5</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J240" s="5"/>
       <c r="K240" s="9"/>
     </row>
     <row r="241" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D241" s="24"/>
+      <c r="D241" s="27"/>
       <c r="E241" s="6">
         <v>6</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J241" s="5"/>
       <c r="K241" s="9"/>
     </row>
     <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D242" s="24"/>
+      <c r="D242" s="27"/>
       <c r="E242" s="6">
         <v>7</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J242" s="5"/>
       <c r="K242" s="9"/>
     </row>
     <row r="243" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D243" s="24"/>
+      <c r="D243" s="27"/>
       <c r="E243" s="6">
         <v>8</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J243" s="5"/>
       <c r="K243" s="9"/>
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="24"/>
+      <c r="D244" s="27"/>
       <c r="E244" s="6">
         <v>9</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J244" s="5"/>
       <c r="K244" s="9"/>
     </row>
     <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D245" s="24"/>
+      <c r="D245" s="27"/>
       <c r="E245" s="6">
         <v>10</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J245" s="5"/>
       <c r="K245" s="9"/>
     </row>
     <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="24"/>
+      <c r="D246" s="27"/>
       <c r="E246" s="6">
         <v>11</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J246" s="5"/>
       <c r="K246" s="9"/>
     </row>
     <row r="247" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D247" s="24"/>
+      <c r="D247" s="27"/>
       <c r="E247" s="6">
         <v>12</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J247" s="5"/>
       <c r="K247" s="9"/>
@@ -5372,14 +5573,20 @@
       <c r="A250" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D250" s="24" t="s">
-        <v>170</v>
+      <c r="B250" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D250" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="E250" s="6">
         <v>1</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G250" s="7" t="s">
         <v>80</v>
@@ -5391,7 +5598,7 @@
       <c r="K250" s="9"/>
     </row>
     <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D251" s="24"/>
+      <c r="D251" s="27"/>
       <c r="E251" s="6">
         <v>2</v>
       </c>
@@ -5408,7 +5615,7 @@
       <c r="K251" s="9"/>
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D252" s="24"/>
+      <c r="D252" s="27"/>
       <c r="E252" s="6">
         <v>3</v>
       </c>
@@ -5422,7 +5629,7 @@
       <c r="K252" s="9"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D253" s="24"/>
+      <c r="D253" s="27"/>
       <c r="E253" s="6">
         <v>4</v>
       </c>
@@ -5436,116 +5643,116 @@
       <c r="K253" s="9"/>
     </row>
     <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D254" s="24"/>
+      <c r="D254" s="27"/>
       <c r="E254" s="6">
         <v>5</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J254" s="5"/>
       <c r="K254" s="9"/>
     </row>
     <row r="255" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D255" s="24"/>
+      <c r="D255" s="27"/>
       <c r="E255" s="6">
         <v>6</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J255" s="5"/>
       <c r="K255" s="9"/>
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D256" s="24"/>
+      <c r="D256" s="27"/>
       <c r="E256" s="6">
         <v>7</v>
       </c>
       <c r="F256" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J256" s="5"/>
       <c r="K256" s="9"/>
     </row>
     <row r="257" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D257" s="24"/>
+      <c r="D257" s="27"/>
       <c r="E257" s="6">
         <v>8</v>
       </c>
       <c r="F257" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J257" s="5"/>
       <c r="K257" s="9"/>
     </row>
     <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D258" s="24"/>
+      <c r="D258" s="27"/>
       <c r="E258" s="6">
         <v>9</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J258" s="5"/>
       <c r="K258" s="9"/>
     </row>
     <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="24"/>
+      <c r="D259" s="27"/>
       <c r="E259" s="6">
         <v>10</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J259" s="5"/>
       <c r="K259" s="9"/>
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D260" s="24"/>
+      <c r="D260" s="27"/>
       <c r="E260" s="6">
         <v>11</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J260" s="5"/>
       <c r="K260" s="9"/>
     </row>
     <row r="261" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D261" s="24"/>
+      <c r="D261" s="27"/>
       <c r="E261" s="6">
         <v>12</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J261" s="5"/>
       <c r="K261" s="9"/>
@@ -5562,14 +5769,20 @@
       <c r="A264" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D264" s="24" t="s">
-        <v>171</v>
+      <c r="B264" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D264" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G264" s="7" t="s">
         <v>80</v>
@@ -5581,7 +5794,7 @@
       <c r="K264" s="9"/>
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D265" s="24"/>
+      <c r="D265" s="27"/>
       <c r="E265" s="6">
         <v>2</v>
       </c>
@@ -5598,7 +5811,7 @@
       <c r="K265" s="9"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="24"/>
+      <c r="D266" s="27"/>
       <c r="E266" s="6">
         <v>3</v>
       </c>
@@ -5613,7 +5826,7 @@
       <c r="K266" s="9"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D267" s="24"/>
+      <c r="D267" s="27"/>
       <c r="E267" s="6">
         <v>4</v>
       </c>
@@ -5628,116 +5841,116 @@
       <c r="K267" s="9"/>
     </row>
     <row r="268" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D268" s="24"/>
+      <c r="D268" s="27"/>
       <c r="E268" s="6">
         <v>5</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J268" s="5"/>
       <c r="K268" s="9"/>
     </row>
     <row r="269" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D269" s="24"/>
+      <c r="D269" s="27"/>
       <c r="E269" s="6">
         <v>6</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J269" s="5"/>
       <c r="K269" s="9"/>
     </row>
     <row r="270" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D270" s="24"/>
+      <c r="D270" s="27"/>
       <c r="E270" s="6">
         <v>7</v>
       </c>
       <c r="F270" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G270" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J270" s="5"/>
       <c r="K270" s="9"/>
     </row>
     <row r="271" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D271" s="24"/>
+      <c r="D271" s="27"/>
       <c r="E271" s="6">
         <v>8</v>
       </c>
       <c r="F271" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J271" s="5"/>
       <c r="K271" s="9"/>
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D272" s="24"/>
+      <c r="D272" s="27"/>
       <c r="E272" s="6">
         <v>9</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J272" s="5"/>
       <c r="K272" s="9"/>
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D273" s="24"/>
+      <c r="D273" s="27"/>
       <c r="E273" s="6">
         <v>10</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J273" s="5"/>
       <c r="K273" s="9"/>
     </row>
     <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="24"/>
+      <c r="D274" s="27"/>
       <c r="E274" s="6">
         <v>11</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="9"/>
     </row>
     <row r="275" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D275" s="24"/>
+      <c r="D275" s="27"/>
       <c r="E275" s="6">
         <v>12</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J275" s="5"/>
       <c r="K275" s="9"/>
@@ -5754,14 +5967,20 @@
       <c r="A278" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D278" s="24" t="s">
-        <v>172</v>
+      <c r="B278" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D278" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="E278" s="6">
         <v>1</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G278" s="7" t="s">
         <v>80</v>
@@ -5773,15 +5992,15 @@
       <c r="K278" s="9"/>
     </row>
     <row r="279" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D279" s="24"/>
+      <c r="D279" s="27"/>
       <c r="E279" s="6">
         <v>2</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H279" s="20"/>
       <c r="J279" s="5"/>
@@ -5801,14 +6020,20 @@
       <c r="A282" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D282" s="24" t="s">
-        <v>176</v>
+      <c r="B282" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D282" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="E282" s="6">
         <v>1</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G282" s="7" t="s">
         <v>80</v>
@@ -5820,33 +6045,33 @@
       <c r="K282" s="9"/>
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D283" s="24"/>
+      <c r="D283" s="27"/>
       <c r="E283" s="6">
         <v>2</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H283" s="20"/>
       <c r="J283" s="5"/>
       <c r="K283" s="9"/>
     </row>
     <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D284" s="24"/>
+      <c r="D284" s="27"/>
       <c r="E284" s="6">
         <v>3</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J284" s="5"/>
       <c r="K284" s="9"/>
@@ -5856,10 +6081,10 @@
         <v>4</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J285" s="5"/>
       <c r="K285" s="9"/>
@@ -5872,14 +6097,20 @@
       <c r="A287" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D287" s="24" t="s">
-        <v>183</v>
+      <c r="B287" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D287" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="E287" s="6">
         <v>1</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G287" s="7" t="s">
         <v>80</v>
@@ -5891,61 +6122,61 @@
       <c r="K287" s="9"/>
     </row>
     <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D288" s="24"/>
+      <c r="D288" s="27"/>
       <c r="E288" s="6">
         <v>2</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H288" s="20"/>
       <c r="J288" s="5"/>
       <c r="K288" s="9"/>
     </row>
     <row r="289" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D289" s="24"/>
+      <c r="D289" s="27"/>
       <c r="E289" s="6">
         <v>3</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J289" s="5"/>
       <c r="K289" s="9"/>
     </row>
     <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D290" s="24"/>
+      <c r="D290" s="27"/>
       <c r="E290" s="6">
         <v>4</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J290" s="5"/>
       <c r="K290" s="9"/>
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D291" s="24"/>
+      <c r="D291" s="27"/>
       <c r="E291" s="6">
         <v>4</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J291" s="5"/>
       <c r="K291" s="9"/>
@@ -5962,14 +6193,20 @@
       <c r="A294" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D294" s="24" t="s">
-        <v>187</v>
+      <c r="B294" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D294" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="E294" s="6">
         <v>1</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G294" s="7" t="s">
         <v>80</v>
@@ -5981,44 +6218,44 @@
       <c r="K294" s="9"/>
     </row>
     <row r="295" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D295" s="24"/>
+      <c r="D295" s="27"/>
       <c r="E295" s="6">
         <v>2</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H295" s="20"/>
       <c r="J295" s="5"/>
       <c r="K295" s="9"/>
     </row>
     <row r="296" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D296" s="24"/>
+      <c r="D296" s="27"/>
       <c r="E296" s="6">
         <v>3</v>
       </c>
       <c r="F296" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J296" s="5"/>
       <c r="K296" s="9"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D297" s="24"/>
+      <c r="D297" s="27"/>
       <c r="E297" s="6">
         <v>4</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J297" s="5"/>
       <c r="K297" s="9"/>
@@ -6035,14 +6272,20 @@
       <c r="A300" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D300" s="24" t="s">
-        <v>194</v>
+      <c r="B300" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D300" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="E300" s="6">
         <v>1</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G300" s="7" t="s">
         <v>80</v>
@@ -6054,30 +6297,30 @@
       <c r="K300" s="9"/>
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D301" s="24"/>
+      <c r="D301" s="27"/>
       <c r="E301" s="6">
         <v>2</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G301" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H301" s="20"/>
       <c r="J301" s="5"/>
       <c r="K301" s="9"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D302" s="24"/>
+      <c r="D302" s="27"/>
       <c r="E302" s="6">
         <v>3</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J302" s="5"/>
       <c r="K302" s="9"/>
@@ -6094,14 +6337,20 @@
       <c r="A305" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D305" s="24" t="s">
-        <v>199</v>
+      <c r="B305" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D305" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E305" s="6">
         <v>1</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G305" s="7" t="s">
         <v>80</v>
@@ -6113,15 +6362,15 @@
       <c r="K305" s="9"/>
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D306" s="24"/>
+      <c r="D306" s="27"/>
       <c r="E306" s="6">
         <v>2</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J306" s="5"/>
       <c r="K306" s="9"/>
@@ -6138,14 +6387,20 @@
       <c r="A309" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D309" s="24" t="s">
-        <v>203</v>
+      <c r="B309" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D309" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="E309" s="6">
         <v>1</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G309" s="7" t="s">
         <v>80</v>
@@ -6157,32 +6412,32 @@
       <c r="K309" s="9"/>
     </row>
     <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D310" s="24"/>
+      <c r="D310" s="27"/>
       <c r="E310" s="6">
         <v>2</v>
       </c>
       <c r="F310" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J310" s="5"/>
       <c r="K310" s="9"/>
     </row>
     <row r="311" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D311" s="24"/>
+      <c r="D311" s="27"/>
       <c r="E311" s="6">
         <v>3</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J311" s="5"/>
       <c r="K311" s="9"/>
@@ -6199,14 +6454,20 @@
       <c r="A314" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D314" s="24" t="s">
-        <v>209</v>
+      <c r="B314" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D314" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="E314" s="6">
         <v>1</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G314" s="7" t="s">
         <v>80</v>
@@ -6218,60 +6479,60 @@
       <c r="K314" s="9"/>
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D315" s="24"/>
+      <c r="D315" s="27"/>
       <c r="E315" s="6">
         <v>2</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J315" s="5"/>
       <c r="K315" s="9"/>
     </row>
     <row r="316" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D316" s="24"/>
+      <c r="D316" s="27"/>
       <c r="E316" s="6">
         <v>3</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G316" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J316" s="5"/>
       <c r="K316" s="9"/>
     </row>
     <row r="317" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D317" s="24"/>
+      <c r="D317" s="27"/>
       <c r="E317" s="6">
         <v>4</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J317" s="5"/>
       <c r="K317" s="9"/>
     </row>
     <row r="318" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D318" s="24"/>
+      <c r="D318" s="27"/>
       <c r="E318" s="6">
         <v>5</v>
       </c>
       <c r="F318" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G318" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J318" s="5"/>
       <c r="K318" s="9"/>
@@ -6281,10 +6542,10 @@
         <v>6</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J319" s="5"/>
       <c r="K319" s="9"/>
@@ -6301,14 +6562,20 @@
       <c r="A322" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D322" s="24" t="s">
-        <v>216</v>
+      <c r="B322" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D322" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G322" s="7" t="s">
         <v>80</v>
@@ -6320,74 +6587,74 @@
       <c r="K322" s="9"/>
     </row>
     <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D323" s="24"/>
+      <c r="D323" s="27"/>
       <c r="E323" s="6">
         <v>2</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J323" s="5"/>
       <c r="K323" s="9"/>
     </row>
     <row r="324" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D324" s="24"/>
+      <c r="D324" s="27"/>
       <c r="E324" s="6">
         <v>3</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J324" s="5"/>
       <c r="K324" s="9"/>
     </row>
     <row r="325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D325" s="24"/>
+      <c r="D325" s="27"/>
       <c r="E325" s="6">
         <v>4</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J325" s="5"/>
       <c r="K325" s="9"/>
     </row>
     <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D326" s="24"/>
+      <c r="D326" s="27"/>
       <c r="E326" s="6">
         <v>5</v>
       </c>
       <c r="F326" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J326" s="5"/>
       <c r="K326" s="9"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D327" s="24"/>
+      <c r="D327" s="27"/>
       <c r="E327" s="6">
         <v>6</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J327" s="5"/>
       <c r="K327" s="9"/>
@@ -6404,14 +6671,20 @@
       <c r="A330" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D330" s="24" t="s">
-        <v>220</v>
+      <c r="B330" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D330" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="E330" s="6">
         <v>1</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G330" s="7" t="s">
         <v>80</v>
@@ -6423,60 +6696,60 @@
       <c r="K330" s="9"/>
     </row>
     <row r="331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D331" s="24"/>
+      <c r="D331" s="27"/>
       <c r="E331" s="6">
         <v>2</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J331" s="5"/>
       <c r="K331" s="9"/>
     </row>
     <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D332" s="24"/>
+      <c r="D332" s="27"/>
       <c r="E332" s="6">
         <v>3</v>
       </c>
       <c r="F332" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J332" s="5"/>
       <c r="K332" s="9"/>
     </row>
     <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D333" s="24"/>
+      <c r="D333" s="27"/>
       <c r="E333" s="6">
         <v>4</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J333" s="5"/>
       <c r="K333" s="9"/>
     </row>
     <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D334" s="24"/>
+      <c r="D334" s="27"/>
       <c r="E334" s="6">
         <v>5</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J334" s="5"/>
       <c r="K334" s="9"/>
@@ -6493,14 +6766,20 @@
       <c r="A337" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D337" s="24" t="s">
-        <v>231</v>
+      <c r="B337" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D337" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="E337" s="6">
         <v>1</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G337" s="7" t="s">
         <v>80</v>
@@ -6512,63 +6791,63 @@
       <c r="K337" s="9"/>
     </row>
     <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D338" s="24"/>
+      <c r="D338" s="27"/>
       <c r="E338" s="6">
         <v>2</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G338" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J338" s="5"/>
       <c r="K338" s="9"/>
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D339" s="24"/>
+      <c r="D339" s="27"/>
       <c r="E339" s="6">
         <v>3</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J339" s="5"/>
       <c r="K339" s="9"/>
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D340" s="24"/>
+      <c r="D340" s="27"/>
       <c r="E340" s="6">
         <v>4</v>
       </c>
       <c r="F340" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G340" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J340" s="5"/>
       <c r="K340" s="9"/>
     </row>
     <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D341" s="24"/>
+      <c r="D341" s="27"/>
       <c r="E341" s="6">
         <v>5</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J341" s="5"/>
       <c r="K341" s="9"/>
@@ -6585,14 +6864,20 @@
       <c r="A344" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D344" s="24" t="s">
-        <v>237</v>
+      <c r="B344" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D344" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="E344" s="6">
         <v>1</v>
       </c>
       <c r="F344" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G344" s="7" t="s">
         <v>80</v>
@@ -6604,60 +6889,60 @@
       <c r="K344" s="9"/>
     </row>
     <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D345" s="24"/>
+      <c r="D345" s="27"/>
       <c r="E345" s="6">
         <v>2</v>
       </c>
       <c r="F345" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J345" s="5"/>
       <c r="K345" s="9"/>
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D346" s="24"/>
+      <c r="D346" s="27"/>
       <c r="E346" s="6">
         <v>3</v>
       </c>
       <c r="F346" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J346" s="5"/>
       <c r="K346" s="9"/>
     </row>
     <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D347" s="24"/>
+      <c r="D347" s="27"/>
       <c r="E347" s="6">
         <v>4</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J347" s="5"/>
       <c r="K347" s="9"/>
     </row>
     <row r="348" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D348" s="24"/>
+      <c r="D348" s="27"/>
       <c r="E348" s="6">
         <v>5</v>
       </c>
       <c r="F348" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J348" s="5"/>
       <c r="K348" s="9"/>
@@ -6674,14 +6959,20 @@
       <c r="A351" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D351" s="24" t="s">
-        <v>240</v>
+      <c r="B351" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D351" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="E351" s="6">
         <v>1</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G351" s="7" t="s">
         <v>80</v>
@@ -6693,46 +6984,46 @@
       <c r="K351" s="9"/>
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D352" s="24"/>
+      <c r="D352" s="27"/>
       <c r="E352" s="6">
         <v>2</v>
       </c>
       <c r="F352" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G352" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J352" s="5"/>
       <c r="K352" s="9"/>
     </row>
     <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D353" s="24"/>
+      <c r="D353" s="27"/>
       <c r="E353" s="6">
         <v>3</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J353" s="5"/>
       <c r="K353" s="9"/>
     </row>
     <row r="354" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D354" s="24"/>
+      <c r="D354" s="27"/>
       <c r="E354" s="6">
         <v>4</v>
       </c>
       <c r="F354" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G354" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J354" s="5"/>
       <c r="K354" s="9"/>
@@ -6749,14 +7040,20 @@
       <c r="A357" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D357" s="24" t="s">
-        <v>243</v>
+      <c r="B357" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D357" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="E357" s="6">
         <v>1</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G357" s="7" t="s">
         <v>80</v>
@@ -6768,60 +7065,60 @@
       <c r="K357" s="9"/>
     </row>
     <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D358" s="24"/>
+      <c r="D358" s="27"/>
       <c r="E358" s="6">
         <v>2</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J358" s="5"/>
       <c r="K358" s="9"/>
     </row>
     <row r="359" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D359" s="24"/>
+      <c r="D359" s="27"/>
       <c r="E359" s="6">
         <v>3</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J359" s="5"/>
       <c r="K359" s="9"/>
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D360" s="24"/>
+      <c r="D360" s="27"/>
       <c r="E360" s="6">
         <v>4</v>
       </c>
       <c r="F360" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J360" s="5"/>
       <c r="K360" s="9"/>
     </row>
     <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D361" s="24"/>
+      <c r="D361" s="27"/>
       <c r="E361" s="6">
         <v>5</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J361" s="5"/>
       <c r="K361" s="9"/>
@@ -6838,14 +7135,20 @@
       <c r="A364" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D364" s="24" t="s">
-        <v>248</v>
+      <c r="B364" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D364" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="E364" s="6">
         <v>1</v>
       </c>
       <c r="F364" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G364" s="7" t="s">
         <v>80</v>
@@ -6857,88 +7160,88 @@
       <c r="K364" s="9"/>
     </row>
     <row r="365" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D365" s="24"/>
+      <c r="D365" s="27"/>
       <c r="E365" s="6">
         <v>2</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J365" s="5"/>
       <c r="K365" s="9"/>
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D366" s="24"/>
+      <c r="D366" s="27"/>
       <c r="E366" s="6">
         <v>3</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J366" s="5"/>
       <c r="K366" s="9"/>
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="24"/>
+      <c r="D367" s="27"/>
       <c r="E367" s="6">
         <v>4</v>
       </c>
       <c r="F367" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J367" s="5"/>
       <c r="K367" s="9"/>
     </row>
     <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D368" s="24"/>
+      <c r="D368" s="27"/>
       <c r="E368" s="6">
         <v>5</v>
       </c>
       <c r="F368" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J368" s="5"/>
       <c r="K368" s="9"/>
     </row>
     <row r="369" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D369" s="24"/>
+      <c r="D369" s="27"/>
       <c r="E369" s="6">
         <v>6</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J369" s="5"/>
       <c r="K369" s="9"/>
     </row>
     <row r="370" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D370" s="24"/>
+      <c r="D370" s="27"/>
       <c r="E370" s="6">
         <v>7</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J370" s="5"/>
       <c r="K370" s="9"/>
@@ -6948,10 +7251,10 @@
         <v>8</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J371" s="5"/>
       <c r="K371" s="9"/>
@@ -6961,10 +7264,10 @@
         <v>9</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J372" s="5"/>
       <c r="K372" s="9"/>
@@ -6974,10 +7277,10 @@
         <v>10</v>
       </c>
       <c r="F373" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G373" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J373" s="5"/>
       <c r="K373" s="9"/>
@@ -6994,14 +7297,20 @@
       <c r="A376" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D376" s="24" t="s">
-        <v>268</v>
+      <c r="B376" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D376" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="E376" s="6">
         <v>1</v>
       </c>
       <c r="F376" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G376" s="7" t="s">
         <v>80</v>
@@ -7013,88 +7322,88 @@
       <c r="K376" s="9"/>
     </row>
     <row r="377" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D377" s="24"/>
+      <c r="D377" s="27"/>
       <c r="E377" s="6">
         <v>2</v>
       </c>
       <c r="F377" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G377" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J377" s="5"/>
       <c r="K377" s="9"/>
     </row>
     <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D378" s="24"/>
+      <c r="D378" s="27"/>
       <c r="E378" s="6">
         <v>3</v>
       </c>
       <c r="F378" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J378" s="5"/>
       <c r="K378" s="9"/>
     </row>
     <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D379" s="24"/>
+      <c r="D379" s="27"/>
       <c r="E379" s="6">
         <v>4</v>
       </c>
       <c r="F379" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J379" s="5"/>
       <c r="K379" s="9"/>
     </row>
     <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D380" s="24"/>
+      <c r="D380" s="27"/>
       <c r="E380" s="6">
         <v>5</v>
       </c>
       <c r="F380" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G380" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J380" s="5"/>
       <c r="K380" s="9"/>
     </row>
     <row r="381" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D381" s="24"/>
+      <c r="D381" s="27"/>
       <c r="E381" s="6">
         <v>6</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G381" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J381" s="5"/>
       <c r="K381" s="9"/>
     </row>
     <row r="382" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D382" s="24"/>
+      <c r="D382" s="27"/>
       <c r="E382" s="6">
         <v>7</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J382" s="5"/>
       <c r="K382" s="9"/>
@@ -7111,14 +7420,20 @@
       <c r="A385" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D385" s="24" t="s">
-        <v>282</v>
+      <c r="B385" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D385" s="27" t="s">
+        <v>279</v>
       </c>
       <c r="E385" s="6">
         <v>1</v>
       </c>
       <c r="F385" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G385" s="7" t="s">
         <v>80</v>
@@ -7130,102 +7445,102 @@
       <c r="K385" s="9"/>
     </row>
     <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D386" s="24"/>
+      <c r="D386" s="27"/>
       <c r="E386" s="6">
         <v>2</v>
       </c>
       <c r="F386" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J386" s="5"/>
       <c r="K386" s="9"/>
     </row>
     <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D387" s="24"/>
+      <c r="D387" s="27"/>
       <c r="E387" s="6">
         <v>3</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J387" s="5"/>
       <c r="K387" s="9"/>
     </row>
     <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D388" s="24"/>
+      <c r="D388" s="27"/>
       <c r="E388" s="6">
         <v>4</v>
       </c>
       <c r="F388" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G388" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J388" s="5"/>
       <c r="K388" s="9"/>
     </row>
     <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D389" s="24"/>
+      <c r="D389" s="27"/>
       <c r="E389" s="6">
         <v>5</v>
       </c>
       <c r="F389" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J389" s="5"/>
       <c r="K389" s="9"/>
     </row>
     <row r="390" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D390" s="24"/>
+      <c r="D390" s="27"/>
       <c r="E390" s="6">
         <v>6</v>
       </c>
       <c r="F390" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J390" s="5"/>
       <c r="K390" s="9"/>
     </row>
     <row r="391" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D391" s="24"/>
+      <c r="D391" s="27"/>
       <c r="E391" s="6">
         <v>7</v>
       </c>
       <c r="F391" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G391" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J391" s="5"/>
       <c r="K391" s="9"/>
     </row>
     <row r="392" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="D392" s="24"/>
+      <c r="D392" s="27"/>
       <c r="E392" s="6">
         <v>8</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G392" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J392" s="5"/>
       <c r="K392" s="9"/>
@@ -7242,8 +7557,14 @@
       <c r="A395" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D395" s="24" t="s">
-        <v>287</v>
+      <c r="B395" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D395" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="E395" s="6">
         <v>1</v>
@@ -7261,7 +7582,7 @@
       <c r="K395" s="9"/>
     </row>
     <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D396" s="24"/>
+      <c r="D396" s="27"/>
       <c r="E396" s="6">
         <v>2</v>
       </c>
@@ -7278,7 +7599,7 @@
       <c r="K396" s="9"/>
     </row>
     <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D397" s="24"/>
+      <c r="D397" s="27"/>
       <c r="E397" s="6">
         <v>3</v>
       </c>
@@ -7293,7 +7614,7 @@
       <c r="K397" s="9"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D398" s="24"/>
+      <c r="D398" s="27"/>
       <c r="E398" s="6">
         <v>4</v>
       </c>
@@ -7308,60 +7629,60 @@
       <c r="K398" s="9"/>
     </row>
     <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D399" s="24"/>
+      <c r="D399" s="27"/>
       <c r="E399" s="6">
         <v>5</v>
       </c>
       <c r="F399" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J399" s="5"/>
       <c r="K399" s="9"/>
     </row>
     <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D400" s="24"/>
+      <c r="D400" s="27"/>
       <c r="E400" s="6">
         <v>6</v>
       </c>
       <c r="F400" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G400" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J400" s="5"/>
       <c r="K400" s="9"/>
     </row>
     <row r="401" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D401" s="24"/>
+      <c r="D401" s="27"/>
       <c r="E401" s="6">
         <v>7</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J401" s="5"/>
       <c r="K401" s="9"/>
     </row>
     <row r="402" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D402" s="24"/>
+      <c r="D402" s="27"/>
       <c r="E402" s="6">
         <v>8</v>
       </c>
       <c r="F402" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J402" s="5"/>
       <c r="K402" s="9"/>
@@ -7378,8 +7699,14 @@
       <c r="A405" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D405" s="24" t="s">
-        <v>293</v>
+      <c r="B405" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D405" s="27" t="s">
+        <v>290</v>
       </c>
       <c r="E405" s="6">
         <v>1</v>
@@ -7397,7 +7724,7 @@
       <c r="K405" s="9"/>
     </row>
     <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D406" s="24"/>
+      <c r="D406" s="27"/>
       <c r="E406" s="6">
         <v>2</v>
       </c>
@@ -7414,161 +7741,161 @@
       <c r="K406" s="9"/>
     </row>
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D407" s="24"/>
+      <c r="D407" s="27"/>
       <c r="E407" s="6">
         <v>3</v>
       </c>
       <c r="F407" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J407" s="5"/>
       <c r="K407" s="9"/>
     </row>
     <row r="408" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D408" s="24"/>
+      <c r="D408" s="27"/>
       <c r="E408" s="6">
         <v>4</v>
       </c>
       <c r="F408" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G408" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J408" s="5"/>
       <c r="K408" s="9"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D409" s="24"/>
+      <c r="D409" s="27"/>
       <c r="E409" s="6">
         <v>5</v>
       </c>
       <c r="F409" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J409" s="5"/>
       <c r="K409" s="9"/>
     </row>
     <row r="410" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D410" s="24"/>
+      <c r="D410" s="27"/>
       <c r="E410" s="6">
         <v>6</v>
       </c>
       <c r="F410" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G410" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J410" s="5"/>
       <c r="K410" s="9"/>
     </row>
     <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D411" s="24"/>
+      <c r="D411" s="27"/>
       <c r="E411" s="6">
         <v>7</v>
       </c>
       <c r="F411" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G411" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J411" s="5"/>
       <c r="K411" s="9"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D412" s="24"/>
+      <c r="D412" s="27"/>
       <c r="E412" s="6">
         <v>8</v>
       </c>
       <c r="F412" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G412" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J412" s="5"/>
       <c r="K412" s="9"/>
     </row>
     <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D413" s="24"/>
+      <c r="D413" s="27"/>
       <c r="E413" s="6">
         <v>9</v>
       </c>
       <c r="F413" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J413" s="5"/>
       <c r="K413" s="9"/>
     </row>
     <row r="414" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D414" s="24"/>
+      <c r="D414" s="27"/>
       <c r="E414" s="6">
         <v>10</v>
       </c>
       <c r="F414" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G414" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J414" s="5"/>
       <c r="K414" s="9"/>
     </row>
     <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D415" s="24"/>
+      <c r="D415" s="27"/>
       <c r="E415" s="6">
         <v>11</v>
       </c>
       <c r="F415" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J415" s="5"/>
       <c r="K415" s="9"/>
     </row>
     <row r="416" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D416" s="24"/>
+      <c r="D416" s="27"/>
       <c r="E416" s="6">
         <v>12</v>
       </c>
       <c r="F416" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G416" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J416" s="5"/>
       <c r="K416" s="9"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D417" s="24"/>
+      <c r="D417" s="27"/>
       <c r="E417" s="6">
         <v>13</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J417" s="5"/>
       <c r="K417" s="9"/>
@@ -7585,8 +7912,14 @@
       <c r="A420" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D420" s="24" t="s">
-        <v>309</v>
+      <c r="B420" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D420" s="27" t="s">
+        <v>306</v>
       </c>
       <c r="E420" s="6">
         <v>1</v>
@@ -7604,7 +7937,7 @@
       <c r="K420" s="9"/>
     </row>
     <row r="421" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D421" s="24"/>
+      <c r="D421" s="27"/>
       <c r="E421" s="6">
         <v>2</v>
       </c>
@@ -7621,164 +7954,164 @@
       <c r="K421" s="9"/>
     </row>
     <row r="422" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D422" s="24"/>
+      <c r="D422" s="27"/>
       <c r="E422" s="6">
         <v>3</v>
       </c>
       <c r="F422" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G422" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J422" s="5"/>
       <c r="K422" s="9"/>
     </row>
     <row r="423" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D423" s="24"/>
+      <c r="D423" s="27"/>
       <c r="E423" s="6">
         <v>4</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J423" s="5"/>
       <c r="K423" s="9"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D424" s="24"/>
+      <c r="D424" s="27"/>
       <c r="E424" s="6">
         <v>5</v>
       </c>
       <c r="F424" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G424" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J424" s="5"/>
       <c r="K424" s="9"/>
     </row>
     <row r="425" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D425" s="24"/>
+      <c r="D425" s="27"/>
       <c r="E425" s="6">
         <v>6</v>
       </c>
       <c r="F425" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J425" s="5"/>
       <c r="K425" s="9"/>
     </row>
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D426" s="24"/>
+      <c r="D426" s="27"/>
       <c r="E426" s="6">
         <v>7</v>
       </c>
       <c r="F426" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G426" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J426" s="5"/>
       <c r="K426" s="9"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D427" s="24"/>
+      <c r="D427" s="27"/>
       <c r="E427" s="6">
         <v>8</v>
       </c>
       <c r="F427" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J427" s="5"/>
       <c r="K427" s="9"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D428" s="24"/>
+      <c r="D428" s="27"/>
       <c r="E428" s="6">
         <v>9</v>
       </c>
       <c r="F428" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G428" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J428" s="5"/>
       <c r="K428" s="9"/>
     </row>
     <row r="429" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D429" s="24"/>
+      <c r="D429" s="27"/>
       <c r="E429" s="6">
         <v>10</v>
       </c>
       <c r="F429" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J429" s="5"/>
       <c r="K429" s="9"/>
     </row>
     <row r="430" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D430" s="24"/>
+      <c r="D430" s="27"/>
       <c r="E430" s="6">
         <v>11</v>
       </c>
       <c r="F430" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G430" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J430" s="5"/>
       <c r="K430" s="9"/>
     </row>
     <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D431" s="24"/>
+      <c r="D431" s="27"/>
       <c r="E431" s="6">
         <v>12</v>
       </c>
       <c r="F431" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G431" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J431" s="5"/>
       <c r="K431" s="9"/>
     </row>
     <row r="432" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D432" s="24"/>
+      <c r="D432" s="27"/>
       <c r="E432" s="6">
         <v>13</v>
       </c>
       <c r="F432" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G432" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J432" s="5"/>
       <c r="K432" s="9"/>
@@ -7788,10 +8121,10 @@
         <v>14</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G433" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J433" s="5"/>
       <c r="K433" s="9"/>
@@ -7808,8 +8141,14 @@
       <c r="A436" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D436" s="24" t="s">
-        <v>321</v>
+      <c r="B436" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D436" s="27" t="s">
+        <v>318</v>
       </c>
       <c r="E436" s="6">
         <v>1</v>
@@ -7827,7 +8166,7 @@
       <c r="K436" s="9"/>
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D437" s="24"/>
+      <c r="D437" s="27"/>
       <c r="E437" s="6">
         <v>2</v>
       </c>
@@ -7844,189 +8183,189 @@
       <c r="K437" s="9"/>
     </row>
     <row r="438" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D438" s="24"/>
+      <c r="D438" s="27"/>
       <c r="E438" s="6">
         <v>3</v>
       </c>
       <c r="F438" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G438" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J438" s="5"/>
       <c r="K438" s="9"/>
     </row>
     <row r="439" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D439" s="24"/>
+      <c r="D439" s="27"/>
       <c r="E439" s="6">
         <v>4</v>
       </c>
       <c r="F439" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J439" s="5"/>
       <c r="K439" s="9"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D440" s="24"/>
+      <c r="D440" s="27"/>
       <c r="E440" s="6">
         <v>5</v>
       </c>
       <c r="F440" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G440" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J440" s="5"/>
       <c r="K440" s="9"/>
     </row>
     <row r="441" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D441" s="24"/>
+      <c r="D441" s="27"/>
       <c r="E441" s="6">
         <v>6</v>
       </c>
       <c r="F441" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G441" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J441" s="5"/>
       <c r="K441" s="9"/>
     </row>
     <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D442" s="24"/>
+      <c r="D442" s="27"/>
       <c r="E442" s="6">
         <v>7</v>
       </c>
       <c r="F442" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G442" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J442" s="5"/>
       <c r="K442" s="9"/>
     </row>
     <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D443" s="24"/>
+      <c r="D443" s="27"/>
       <c r="E443" s="6">
         <v>8</v>
       </c>
       <c r="F443" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G443" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J443" s="5"/>
       <c r="K443" s="9"/>
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D444" s="24"/>
+      <c r="D444" s="27"/>
       <c r="E444" s="6">
         <v>9</v>
       </c>
       <c r="F444" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G444" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J444" s="5"/>
       <c r="K444" s="9"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D445" s="24"/>
+      <c r="D445" s="27"/>
       <c r="E445" s="6">
         <v>10</v>
       </c>
       <c r="F445" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G445" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J445" s="5"/>
       <c r="K445" s="9"/>
     </row>
     <row r="446" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D446" s="24"/>
+      <c r="D446" s="27"/>
       <c r="E446" s="6">
         <v>11</v>
       </c>
       <c r="F446" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G446" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J446" s="5"/>
       <c r="K446" s="9"/>
     </row>
     <row r="447" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D447" s="24"/>
+      <c r="D447" s="27"/>
       <c r="E447" s="6">
         <v>12</v>
       </c>
       <c r="F447" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G447" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J447" s="5"/>
       <c r="K447" s="9"/>
     </row>
     <row r="448" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D448" s="24"/>
+      <c r="D448" s="27"/>
       <c r="E448" s="6">
         <v>13</v>
       </c>
       <c r="F448" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G448" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J448" s="5"/>
       <c r="K448" s="9"/>
     </row>
     <row r="449" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D449" s="24"/>
+      <c r="D449" s="27"/>
       <c r="E449" s="6">
         <v>14</v>
       </c>
       <c r="F449" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G449" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J449" s="5"/>
       <c r="K449" s="9"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D450" s="24"/>
+      <c r="D450" s="27"/>
       <c r="E450" s="6">
         <v>15</v>
       </c>
       <c r="F450" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G450" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J450" s="5"/>
       <c r="K450" s="9"/>
@@ -8043,8 +8382,14 @@
       <c r="A453" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D453" s="24" t="s">
-        <v>330</v>
+      <c r="B453" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D453" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="E453" s="6">
         <v>1</v>
@@ -8062,7 +8407,7 @@
       <c r="K453" s="9"/>
     </row>
     <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D454" s="24"/>
+      <c r="D454" s="27"/>
       <c r="E454" s="6">
         <v>2</v>
       </c>
@@ -8079,116 +8424,116 @@
       <c r="K454" s="9"/>
     </row>
     <row r="455" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D455" s="24"/>
+      <c r="D455" s="27"/>
       <c r="E455" s="6">
         <v>3</v>
       </c>
       <c r="F455" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G455" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J455" s="5"/>
       <c r="K455" s="9"/>
     </row>
     <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D456" s="24"/>
+      <c r="D456" s="27"/>
       <c r="E456" s="6">
         <v>4</v>
       </c>
       <c r="F456" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G456" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J456" s="5"/>
       <c r="K456" s="9"/>
     </row>
     <row r="457" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D457" s="24"/>
+      <c r="D457" s="27"/>
       <c r="E457" s="6">
         <v>5</v>
       </c>
       <c r="F457" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G457" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J457" s="5"/>
       <c r="K457" s="9"/>
     </row>
     <row r="458" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D458" s="24"/>
+      <c r="D458" s="27"/>
       <c r="E458" s="6">
         <v>6</v>
       </c>
       <c r="F458" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G458" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J458" s="5"/>
       <c r="K458" s="9"/>
     </row>
     <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D459" s="24"/>
+      <c r="D459" s="27"/>
       <c r="E459" s="6">
         <v>7</v>
       </c>
       <c r="F459" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G459" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J459" s="5"/>
       <c r="K459" s="9"/>
     </row>
     <row r="460" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D460" s="24"/>
+      <c r="D460" s="27"/>
       <c r="E460" s="6">
         <v>8</v>
       </c>
       <c r="F460" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G460" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J460" s="5"/>
       <c r="K460" s="9"/>
     </row>
     <row r="461" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D461" s="24"/>
+      <c r="D461" s="27"/>
       <c r="E461" s="6">
         <v>9</v>
       </c>
       <c r="F461" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J461" s="5"/>
       <c r="K461" s="9"/>
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D462" s="24"/>
+      <c r="D462" s="27"/>
       <c r="E462" s="6">
         <v>10</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J462" s="5"/>
       <c r="K462" s="9"/>
@@ -8198,10 +8543,10 @@
         <v>11</v>
       </c>
       <c r="F463" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G463" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J463" s="5"/>
       <c r="K463" s="9"/>
@@ -8218,8 +8563,14 @@
       <c r="A466" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D466" s="24" t="s">
-        <v>349</v>
+      <c r="B466" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D466" s="27" t="s">
+        <v>346</v>
       </c>
       <c r="E466" s="6">
         <v>1</v>
@@ -8237,7 +8588,7 @@
       <c r="K466" s="9"/>
     </row>
     <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D467" s="24"/>
+      <c r="D467" s="27"/>
       <c r="E467" s="6">
         <v>2</v>
       </c>
@@ -8254,102 +8605,102 @@
       <c r="K467" s="9"/>
     </row>
     <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D468" s="24"/>
+      <c r="D468" s="27"/>
       <c r="E468" s="6">
         <v>3</v>
       </c>
       <c r="F468" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G468" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J468" s="5"/>
       <c r="K468" s="9"/>
     </row>
     <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D469" s="24"/>
+      <c r="D469" s="27"/>
       <c r="E469" s="6">
         <v>4</v>
       </c>
       <c r="F469" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J469" s="5"/>
       <c r="K469" s="9"/>
     </row>
     <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D470" s="24"/>
+      <c r="D470" s="27"/>
       <c r="E470" s="6">
         <v>5</v>
       </c>
       <c r="F470" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G470" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J470" s="5"/>
       <c r="K470" s="9"/>
     </row>
     <row r="471" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D471" s="24"/>
+      <c r="D471" s="27"/>
       <c r="E471" s="6">
         <v>6</v>
       </c>
       <c r="F471" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J471" s="5"/>
       <c r="K471" s="9"/>
     </row>
     <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D472" s="24"/>
+      <c r="D472" s="27"/>
       <c r="E472" s="6">
         <v>7</v>
       </c>
       <c r="F472" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G472" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J472" s="5"/>
       <c r="K472" s="9"/>
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D473" s="24"/>
+      <c r="D473" s="27"/>
       <c r="E473" s="6">
         <v>8</v>
       </c>
       <c r="F473" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G473" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J473" s="5"/>
       <c r="K473" s="9"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D474" s="24"/>
+      <c r="D474" s="27"/>
       <c r="E474" s="6">
         <v>9</v>
       </c>
       <c r="F474" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G474" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J474" s="5"/>
       <c r="K474" s="9"/>
@@ -8366,8 +8717,14 @@
       <c r="A477" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D477" s="24" t="s">
-        <v>357</v>
+      <c r="B477" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D477" s="27" t="s">
+        <v>354</v>
       </c>
       <c r="E477" s="6">
         <v>1</v>
@@ -8385,7 +8742,7 @@
       <c r="K477" s="9"/>
     </row>
     <row r="478" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D478" s="24"/>
+      <c r="D478" s="27"/>
       <c r="E478" s="6">
         <v>2</v>
       </c>
@@ -8402,130 +8759,130 @@
       <c r="K478" s="9"/>
     </row>
     <row r="479" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D479" s="24"/>
+      <c r="D479" s="27"/>
       <c r="E479" s="6">
         <v>3</v>
       </c>
       <c r="F479" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G479" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J479" s="5"/>
       <c r="K479" s="9"/>
     </row>
     <row r="480" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D480" s="24"/>
+      <c r="D480" s="27"/>
       <c r="E480" s="6">
         <v>4</v>
       </c>
       <c r="F480" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J480" s="5"/>
       <c r="K480" s="9"/>
     </row>
     <row r="481" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D481" s="24"/>
+      <c r="D481" s="27"/>
       <c r="E481" s="6">
         <v>5</v>
       </c>
       <c r="F481" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J481" s="5"/>
       <c r="K481" s="9"/>
     </row>
     <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D482" s="24"/>
+      <c r="D482" s="27"/>
       <c r="E482" s="6">
         <v>6</v>
       </c>
       <c r="F482" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H482" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J482" s="5"/>
       <c r="K482" s="9"/>
     </row>
     <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D483" s="24"/>
+      <c r="D483" s="27"/>
       <c r="E483" s="6">
         <v>7</v>
       </c>
       <c r="F483" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G483" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J483" s="5"/>
       <c r="K483" s="9"/>
     </row>
     <row r="484" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D484" s="24"/>
+      <c r="D484" s="27"/>
       <c r="E484" s="6">
         <v>8</v>
       </c>
       <c r="F484" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G484" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J484" s="5"/>
       <c r="K484" s="9"/>
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D485" s="24"/>
+      <c r="D485" s="27"/>
       <c r="E485" s="6">
         <v>9</v>
       </c>
       <c r="F485" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J485" s="9"/>
       <c r="K485" s="9"/>
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D486" s="24"/>
+      <c r="D486" s="27"/>
       <c r="E486" s="6">
         <v>10</v>
       </c>
       <c r="F486" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G486" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J486" s="9"/>
       <c r="K486" s="9"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D487" s="24"/>
+      <c r="D487" s="27"/>
       <c r="E487" s="6">
         <v>11</v>
       </c>
       <c r="F487" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J487" s="9"/>
       <c r="K487" s="9"/>
@@ -8542,8 +8899,14 @@
       <c r="A490" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D490" s="24" t="s">
-        <v>360</v>
+      <c r="B490" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D490" s="27" t="s">
+        <v>357</v>
       </c>
       <c r="E490" s="6">
         <v>1</v>
@@ -8561,7 +8924,7 @@
       <c r="K490" s="9"/>
     </row>
     <row r="491" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D491" s="24"/>
+      <c r="D491" s="27"/>
       <c r="E491" s="6">
         <v>2</v>
       </c>
@@ -8578,116 +8941,116 @@
       <c r="K491" s="9"/>
     </row>
     <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D492" s="24"/>
+      <c r="D492" s="27"/>
       <c r="E492" s="6">
         <v>3</v>
       </c>
       <c r="F492" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G492" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J492" s="9"/>
       <c r="K492" s="9"/>
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D493" s="24"/>
+      <c r="D493" s="27"/>
       <c r="E493" s="6">
         <v>4</v>
       </c>
       <c r="F493" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G493" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J493" s="9"/>
       <c r="K493" s="9"/>
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D494" s="24"/>
+      <c r="D494" s="27"/>
       <c r="E494" s="6">
         <v>5</v>
       </c>
       <c r="F494" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G494" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J494" s="9"/>
       <c r="K494" s="9"/>
     </row>
     <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D495" s="24"/>
+      <c r="D495" s="27"/>
       <c r="E495" s="6">
         <v>6</v>
       </c>
       <c r="F495" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G495" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J495" s="9"/>
       <c r="K495" s="9"/>
     </row>
     <row r="496" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D496" s="24"/>
+      <c r="D496" s="27"/>
       <c r="E496" s="6">
         <v>7</v>
       </c>
       <c r="F496" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G496" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J496" s="9"/>
       <c r="K496" s="9"/>
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D497" s="24"/>
+      <c r="D497" s="27"/>
       <c r="E497" s="6">
         <v>8</v>
       </c>
       <c r="F497" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G497" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J497" s="9"/>
       <c r="K497" s="9"/>
     </row>
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D498" s="24"/>
+      <c r="D498" s="27"/>
       <c r="E498" s="6">
         <v>9</v>
       </c>
       <c r="F498" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G498" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J498" s="9"/>
       <c r="K498" s="9"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D499" s="24"/>
+      <c r="D499" s="27"/>
       <c r="E499" s="6">
         <v>10</v>
       </c>
       <c r="F499" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G499" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J499" s="9"/>
       <c r="K499" s="9"/>
@@ -8704,8 +9067,14 @@
       <c r="A502" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D502" s="24" t="s">
-        <v>364</v>
+      <c r="B502" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D502" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="E502" s="6">
         <v>1</v>
@@ -8723,7 +9092,7 @@
       <c r="K502" s="9"/>
     </row>
     <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D503" s="24"/>
+      <c r="D503" s="27"/>
       <c r="E503" s="6">
         <v>2</v>
       </c>
@@ -8740,130 +9109,130 @@
       <c r="K503" s="9"/>
     </row>
     <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D504" s="24"/>
+      <c r="D504" s="27"/>
       <c r="E504" s="6">
         <v>3</v>
       </c>
       <c r="F504" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G504" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J504" s="9"/>
       <c r="K504" s="9"/>
     </row>
     <row r="505" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D505" s="24"/>
+      <c r="D505" s="27"/>
       <c r="E505" s="6">
         <v>4</v>
       </c>
       <c r="F505" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G505" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J505" s="9"/>
       <c r="K505" s="9"/>
     </row>
     <row r="506" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D506" s="24"/>
+      <c r="D506" s="27"/>
       <c r="E506" s="6">
         <v>5</v>
       </c>
       <c r="F506" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G506" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J506" s="9"/>
       <c r="K506" s="9"/>
     </row>
     <row r="507" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D507" s="24"/>
+      <c r="D507" s="27"/>
       <c r="E507" s="6">
         <v>6</v>
       </c>
       <c r="F507" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G507" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J507" s="9"/>
       <c r="K507" s="9"/>
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D508" s="24"/>
+      <c r="D508" s="27"/>
       <c r="E508" s="6">
         <v>7</v>
       </c>
       <c r="F508" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G508" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J508" s="9"/>
       <c r="K508" s="9"/>
     </row>
     <row r="509" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D509" s="24"/>
+      <c r="D509" s="27"/>
       <c r="E509" s="6">
         <v>8</v>
       </c>
       <c r="F509" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G509" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J509" s="9"/>
       <c r="K509" s="9"/>
     </row>
     <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D510" s="24"/>
+      <c r="D510" s="27"/>
       <c r="E510" s="6">
         <v>9</v>
       </c>
       <c r="F510" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G510" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J510" s="9"/>
       <c r="K510" s="9"/>
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D511" s="24"/>
+      <c r="D511" s="27"/>
       <c r="E511" s="6">
         <v>10</v>
       </c>
       <c r="F511" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G511" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J511" s="9"/>
       <c r="K511" s="9"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D512" s="24"/>
+      <c r="D512" s="27"/>
       <c r="E512" s="6">
         <v>11</v>
       </c>
       <c r="F512" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G512" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J512" s="9"/>
       <c r="K512" s="9"/>
@@ -8880,8 +9249,14 @@
       <c r="A515" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D515" s="24" t="s">
-        <v>368</v>
+      <c r="B515" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D515" s="27" t="s">
+        <v>365</v>
       </c>
       <c r="E515" s="6">
         <v>1</v>
@@ -8899,7 +9274,7 @@
       <c r="K515" s="9"/>
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D516" s="24"/>
+      <c r="D516" s="27"/>
       <c r="E516" s="6">
         <v>2</v>
       </c>
@@ -8916,102 +9291,102 @@
       <c r="K516" s="9"/>
     </row>
     <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D517" s="24"/>
+      <c r="D517" s="27"/>
       <c r="E517" s="6">
         <v>3</v>
       </c>
       <c r="F517" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G517" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J517" s="9"/>
       <c r="K517" s="9"/>
     </row>
     <row r="518" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D518" s="24"/>
+      <c r="D518" s="27"/>
       <c r="E518" s="6">
         <v>4</v>
       </c>
       <c r="F518" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G518" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J518" s="9"/>
       <c r="K518" s="9"/>
     </row>
     <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D519" s="24"/>
+      <c r="D519" s="27"/>
       <c r="E519" s="6">
         <v>5</v>
       </c>
       <c r="F519" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G519" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J519" s="9"/>
       <c r="K519" s="9"/>
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D520" s="24"/>
+      <c r="D520" s="27"/>
       <c r="E520" s="6">
         <v>6</v>
       </c>
       <c r="F520" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G520" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J520" s="9"/>
       <c r="K520" s="9"/>
     </row>
     <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D521" s="24"/>
+      <c r="D521" s="27"/>
       <c r="E521" s="6">
         <v>7</v>
       </c>
       <c r="F521" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G521" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J521" s="9"/>
       <c r="K521" s="9"/>
     </row>
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D522" s="24"/>
+      <c r="D522" s="27"/>
       <c r="E522" s="6">
         <v>8</v>
       </c>
       <c r="F522" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G522" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J522" s="9"/>
       <c r="K522" s="9"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D523" s="24"/>
+      <c r="D523" s="27"/>
       <c r="E523" s="6">
         <v>9</v>
       </c>
       <c r="F523" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G523" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J523" s="9"/>
       <c r="K523" s="9"/>
@@ -9028,8 +9403,14 @@
       <c r="A526" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D526" s="24" t="s">
-        <v>372</v>
+      <c r="B526" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D526" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="E526" s="6">
         <v>1</v>
@@ -9047,7 +9428,7 @@
       <c r="K526" s="9"/>
     </row>
     <row r="527" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D527" s="24"/>
+      <c r="D527" s="27"/>
       <c r="E527" s="6">
         <v>2</v>
       </c>
@@ -9064,88 +9445,88 @@
       <c r="K527" s="9"/>
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D528" s="24"/>
+      <c r="D528" s="27"/>
       <c r="E528" s="6">
         <v>3</v>
       </c>
       <c r="F528" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G528" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J528" s="9"/>
       <c r="K528" s="9"/>
     </row>
     <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D529" s="24"/>
+      <c r="D529" s="27"/>
       <c r="E529" s="6">
         <v>4</v>
       </c>
       <c r="F529" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G529" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H529" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J529" s="9"/>
       <c r="K529" s="9"/>
     </row>
     <row r="530" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D530" s="24"/>
+      <c r="D530" s="27"/>
       <c r="E530" s="6">
         <v>5</v>
       </c>
       <c r="F530" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G530" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J530" s="9"/>
       <c r="K530" s="9"/>
     </row>
     <row r="531" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D531" s="24"/>
+      <c r="D531" s="27"/>
       <c r="E531" s="6">
         <v>6</v>
       </c>
       <c r="F531" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G531" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J531" s="9"/>
       <c r="K531" s="9"/>
     </row>
     <row r="532" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D532" s="24"/>
+      <c r="D532" s="27"/>
       <c r="E532" s="6">
         <v>7</v>
       </c>
       <c r="F532" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G532" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J532" s="9"/>
       <c r="K532" s="9"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D533" s="24"/>
+      <c r="D533" s="27"/>
       <c r="E533" s="6">
         <v>8</v>
       </c>
       <c r="F533" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G533" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J533" s="9"/>
       <c r="K533" s="9"/>
@@ -9162,8 +9543,14 @@
       <c r="A536" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D536" s="24" t="s">
-        <v>376</v>
+      <c r="B536" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D536" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="E536" s="6">
         <v>1</v>
@@ -9181,7 +9568,7 @@
       <c r="K536" s="9"/>
     </row>
     <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D537" s="24"/>
+      <c r="D537" s="27"/>
       <c r="E537" s="6">
         <v>2</v>
       </c>
@@ -9198,130 +9585,130 @@
       <c r="K537" s="9"/>
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D538" s="24"/>
+      <c r="D538" s="27"/>
       <c r="E538" s="6">
         <v>3</v>
       </c>
       <c r="F538" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G538" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J538" s="9"/>
       <c r="K538" s="9"/>
     </row>
     <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D539" s="24"/>
+      <c r="D539" s="27"/>
       <c r="E539" s="6">
         <v>4</v>
       </c>
       <c r="F539" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G539" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J539" s="9"/>
       <c r="K539" s="9"/>
     </row>
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D540" s="24"/>
+      <c r="D540" s="27"/>
       <c r="E540" s="6">
         <v>5</v>
       </c>
       <c r="F540" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G540" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J540" s="9"/>
       <c r="K540" s="9"/>
     </row>
     <row r="541" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D541" s="24"/>
+      <c r="D541" s="27"/>
       <c r="E541" s="6">
         <v>6</v>
       </c>
       <c r="F541" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G541" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J541" s="9"/>
       <c r="K541" s="9"/>
     </row>
     <row r="542" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D542" s="24"/>
+      <c r="D542" s="27"/>
       <c r="E542" s="6">
         <v>7</v>
       </c>
       <c r="F542" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G542" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J542" s="9"/>
       <c r="K542" s="9"/>
     </row>
     <row r="543" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D543" s="24"/>
+      <c r="D543" s="27"/>
       <c r="E543" s="6">
         <v>8</v>
       </c>
       <c r="F543" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G543" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J543" s="9"/>
       <c r="K543" s="9"/>
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D544" s="24"/>
+      <c r="D544" s="27"/>
       <c r="E544" s="6">
         <v>9</v>
       </c>
       <c r="F544" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G544" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J544" s="9"/>
       <c r="K544" s="9"/>
     </row>
     <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D545" s="24"/>
+      <c r="D545" s="27"/>
       <c r="E545" s="6">
         <v>10</v>
       </c>
       <c r="F545" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G545" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J545" s="9"/>
       <c r="K545" s="9"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D546" s="24"/>
+      <c r="D546" s="27"/>
       <c r="E546" s="6">
         <v>11</v>
       </c>
       <c r="F546" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G546" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J546" s="9"/>
       <c r="K546" s="9"/>
@@ -9338,8 +9725,14 @@
       <c r="A549" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D549" s="24" t="s">
-        <v>380</v>
+      <c r="B549" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D549" s="27" t="s">
+        <v>377</v>
       </c>
       <c r="E549" s="6">
         <v>1</v>
@@ -9357,7 +9750,7 @@
       <c r="K549" s="9"/>
     </row>
     <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D550" s="24"/>
+      <c r="D550" s="27"/>
       <c r="E550" s="6">
         <v>2</v>
       </c>
@@ -9374,102 +9767,102 @@
       <c r="K550" s="9"/>
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D551" s="24"/>
+      <c r="D551" s="27"/>
       <c r="E551" s="6">
         <v>3</v>
       </c>
       <c r="F551" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G551" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J551" s="9"/>
       <c r="K551" s="9"/>
     </row>
     <row r="552" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D552" s="24"/>
+      <c r="D552" s="27"/>
       <c r="E552" s="6">
         <v>4</v>
       </c>
       <c r="F552" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G552" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J552" s="9"/>
       <c r="K552" s="9"/>
     </row>
     <row r="553" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D553" s="24"/>
+      <c r="D553" s="27"/>
       <c r="E553" s="6">
         <v>5</v>
       </c>
       <c r="F553" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G553" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J553" s="9"/>
       <c r="K553" s="9"/>
     </row>
     <row r="554" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D554" s="24"/>
+      <c r="D554" s="27"/>
       <c r="E554" s="6">
         <v>6</v>
       </c>
       <c r="F554" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G554" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J554" s="9"/>
       <c r="K554" s="9"/>
     </row>
     <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D555" s="24"/>
+      <c r="D555" s="27"/>
       <c r="E555" s="6">
         <v>7</v>
       </c>
       <c r="F555" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G555" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J555" s="9"/>
       <c r="K555" s="9"/>
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D556" s="24"/>
+      <c r="D556" s="27"/>
       <c r="E556" s="6">
         <v>8</v>
       </c>
       <c r="F556" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G556" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J556" s="9"/>
       <c r="K556" s="9"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D557" s="24"/>
+      <c r="D557" s="27"/>
       <c r="E557" s="6">
         <v>9</v>
       </c>
       <c r="F557" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G557" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J557" s="9"/>
       <c r="K557" s="9"/>
@@ -9486,8 +9879,14 @@
       <c r="A560" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D560" s="24" t="s">
-        <v>384</v>
+      <c r="B560" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D560" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="E560" s="6">
         <v>1</v>
@@ -9505,7 +9904,7 @@
       <c r="K560" s="9"/>
     </row>
     <row r="561" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D561" s="24"/>
+      <c r="D561" s="27"/>
       <c r="E561" s="6">
         <v>2</v>
       </c>
@@ -9522,116 +9921,116 @@
       <c r="K561" s="9"/>
     </row>
     <row r="562" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D562" s="24"/>
+      <c r="D562" s="27"/>
       <c r="E562" s="6">
         <v>3</v>
       </c>
       <c r="F562" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G562" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J562" s="9"/>
       <c r="K562" s="9"/>
     </row>
     <row r="563" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D563" s="24"/>
+      <c r="D563" s="27"/>
       <c r="E563" s="6">
         <v>4</v>
       </c>
       <c r="F563" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G563" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J563" s="9"/>
       <c r="K563" s="9"/>
     </row>
     <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D564" s="24"/>
+      <c r="D564" s="27"/>
       <c r="E564" s="6">
         <v>5</v>
       </c>
       <c r="F564" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J564" s="9"/>
       <c r="K564" s="9"/>
     </row>
     <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D565" s="24"/>
+      <c r="D565" s="27"/>
       <c r="E565" s="6">
         <v>6</v>
       </c>
       <c r="F565" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G565" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J565" s="9"/>
       <c r="K565" s="9"/>
     </row>
     <row r="566" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D566" s="24"/>
+      <c r="D566" s="27"/>
       <c r="E566" s="6">
         <v>7</v>
       </c>
       <c r="F566" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G566" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J566" s="9"/>
       <c r="K566" s="9"/>
     </row>
     <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D567" s="24"/>
+      <c r="D567" s="27"/>
       <c r="E567" s="6">
         <v>8</v>
       </c>
       <c r="F567" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G567" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J567" s="9"/>
       <c r="K567" s="9"/>
     </row>
     <row r="568" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D568" s="24"/>
+      <c r="D568" s="27"/>
       <c r="E568" s="6">
         <v>9</v>
       </c>
       <c r="F568" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G568" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J568" s="9"/>
       <c r="K568" s="9"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D569" s="24"/>
+      <c r="D569" s="27"/>
       <c r="E569" s="6">
         <v>10</v>
       </c>
       <c r="F569" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G569" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J569" s="9"/>
       <c r="K569" s="9"/>
@@ -9648,8 +10047,14 @@
       <c r="A572" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D572" s="24" t="s">
-        <v>388</v>
+      <c r="B572" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D572" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="E572" s="6">
         <v>1</v>
@@ -9667,7 +10072,7 @@
       <c r="K572" s="9"/>
     </row>
     <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D573" s="24"/>
+      <c r="D573" s="27"/>
       <c r="E573" s="6">
         <v>2</v>
       </c>
@@ -9684,189 +10089,189 @@
       <c r="K573" s="9"/>
     </row>
     <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D574" s="24"/>
+      <c r="D574" s="27"/>
       <c r="E574" s="6">
         <v>3</v>
       </c>
       <c r="F574" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G574" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J574" s="9"/>
       <c r="K574" s="9"/>
     </row>
     <row r="575" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D575" s="24"/>
+      <c r="D575" s="27"/>
       <c r="E575" s="6">
         <v>4</v>
       </c>
       <c r="F575" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G575" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H575" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J575" s="9"/>
       <c r="K575" s="9"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D576" s="24"/>
+      <c r="D576" s="27"/>
       <c r="E576" s="6">
         <v>5</v>
       </c>
       <c r="F576" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G576" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J576" s="9"/>
       <c r="K576" s="9"/>
     </row>
     <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D577" s="24"/>
+      <c r="D577" s="27"/>
       <c r="E577" s="6">
         <v>6</v>
       </c>
       <c r="F577" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G577" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J577" s="9"/>
       <c r="K577" s="9"/>
     </row>
     <row r="578" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D578" s="24"/>
+      <c r="D578" s="27"/>
       <c r="E578" s="6">
         <v>7</v>
       </c>
       <c r="F578" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G578" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J578" s="9"/>
       <c r="K578" s="9"/>
     </row>
     <row r="579" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D579" s="24"/>
+      <c r="D579" s="27"/>
       <c r="E579" s="6">
         <v>8</v>
       </c>
       <c r="F579" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G579" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J579" s="9"/>
       <c r="K579" s="9"/>
     </row>
     <row r="580" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D580" s="24"/>
+      <c r="D580" s="27"/>
       <c r="E580" s="6">
         <v>9</v>
       </c>
       <c r="F580" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G580" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J580" s="9"/>
       <c r="K580" s="9"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D581" s="24"/>
+      <c r="D581" s="27"/>
       <c r="E581" s="6">
         <v>10</v>
       </c>
       <c r="F581" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G581" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J581" s="9"/>
       <c r="K581" s="9"/>
     </row>
     <row r="582" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D582" s="24"/>
+      <c r="D582" s="27"/>
       <c r="E582" s="6">
         <v>11</v>
       </c>
       <c r="F582" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G582" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H582" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J582" s="9"/>
       <c r="K582" s="9"/>
     </row>
     <row r="583" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D583" s="24"/>
+      <c r="D583" s="27"/>
       <c r="E583" s="6">
         <v>12</v>
       </c>
       <c r="F583" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G583" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J583" s="9"/>
       <c r="K583" s="9"/>
     </row>
     <row r="584" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D584" s="24"/>
+      <c r="D584" s="27"/>
       <c r="E584" s="6">
         <v>13</v>
       </c>
       <c r="F584" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G584" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J584" s="9"/>
       <c r="K584" s="9"/>
     </row>
     <row r="585" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D585" s="24"/>
+      <c r="D585" s="27"/>
       <c r="E585" s="6">
         <v>14</v>
       </c>
       <c r="F585" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G585" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J585" s="9"/>
       <c r="K585" s="9"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D586" s="24"/>
+      <c r="D586" s="27"/>
       <c r="E586" s="6">
         <v>15</v>
       </c>
       <c r="F586" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G586" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J586" s="9"/>
       <c r="K586" s="9"/>
@@ -9883,8 +10288,14 @@
       <c r="A589" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D589" s="24" t="s">
-        <v>391</v>
+      <c r="B589" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D589" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="E589" s="6">
         <v>1</v>
@@ -9902,7 +10313,7 @@
       <c r="K589" s="9"/>
     </row>
     <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D590" s="24"/>
+      <c r="D590" s="27"/>
       <c r="E590" s="6">
         <v>2</v>
       </c>
@@ -9919,217 +10330,217 @@
       <c r="K590" s="9"/>
     </row>
     <row r="591" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D591" s="24"/>
+      <c r="D591" s="27"/>
       <c r="E591" s="6">
         <v>3</v>
       </c>
       <c r="F591" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G591" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J591" s="9"/>
       <c r="K591" s="9"/>
     </row>
     <row r="592" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D592" s="24"/>
+      <c r="D592" s="27"/>
       <c r="E592" s="6">
         <v>4</v>
       </c>
       <c r="F592" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G592" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H592" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J592" s="9"/>
       <c r="K592" s="9"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D593" s="24"/>
+      <c r="D593" s="27"/>
       <c r="E593" s="6">
         <v>5</v>
       </c>
       <c r="F593" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G593" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J593" s="9"/>
       <c r="K593" s="9"/>
     </row>
     <row r="594" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D594" s="24"/>
+      <c r="D594" s="27"/>
       <c r="E594" s="6">
         <v>6</v>
       </c>
       <c r="F594" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G594" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J594" s="9"/>
       <c r="K594" s="9"/>
     </row>
     <row r="595" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D595" s="24"/>
+      <c r="D595" s="27"/>
       <c r="E595" s="6">
         <v>7</v>
       </c>
       <c r="F595" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G595" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J595" s="9"/>
       <c r="K595" s="9"/>
     </row>
     <row r="596" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D596" s="24"/>
+      <c r="D596" s="27"/>
       <c r="E596" s="6">
         <v>8</v>
       </c>
       <c r="F596" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G596" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J596" s="9"/>
       <c r="K596" s="9"/>
     </row>
     <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D597" s="24"/>
+      <c r="D597" s="27"/>
       <c r="E597" s="6">
         <v>9</v>
       </c>
       <c r="F597" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G597" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J597" s="9"/>
       <c r="K597" s="9"/>
     </row>
     <row r="598" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D598" s="24"/>
+      <c r="D598" s="27"/>
       <c r="E598" s="6">
         <v>10</v>
       </c>
       <c r="F598" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G598" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J598" s="9"/>
       <c r="K598" s="9"/>
     </row>
     <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D599" s="24"/>
+      <c r="D599" s="27"/>
       <c r="E599" s="6">
         <v>11</v>
       </c>
       <c r="F599" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G599" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J599" s="9"/>
       <c r="K599" s="9"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D600" s="24"/>
+      <c r="D600" s="27"/>
       <c r="E600" s="6">
         <v>12</v>
       </c>
       <c r="F600" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G600" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J600" s="9"/>
       <c r="K600" s="9"/>
     </row>
     <row r="601" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D601" s="24"/>
+      <c r="D601" s="27"/>
       <c r="E601" s="6">
         <v>13</v>
       </c>
       <c r="F601" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G601" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H601" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J601" s="9"/>
       <c r="K601" s="9"/>
     </row>
     <row r="602" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D602" s="24"/>
+      <c r="D602" s="27"/>
       <c r="E602" s="6">
         <v>14</v>
       </c>
       <c r="F602" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G602" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J602" s="9"/>
       <c r="K602" s="9"/>
     </row>
     <row r="603" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D603" s="24"/>
+      <c r="D603" s="27"/>
       <c r="E603" s="6">
         <v>15</v>
       </c>
       <c r="F603" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G603" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J603" s="9"/>
       <c r="K603" s="9"/>
     </row>
     <row r="604" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D604" s="24"/>
+      <c r="D604" s="27"/>
       <c r="E604" s="6">
         <v>16</v>
       </c>
       <c r="F604" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G604" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J604" s="9"/>
       <c r="K604" s="9"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D605" s="24"/>
+      <c r="D605" s="27"/>
       <c r="E605" s="6">
         <v>17</v>
       </c>
       <c r="F605" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G605" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J605" s="9"/>
       <c r="K605" s="9"/>
@@ -10146,8 +10557,14 @@
       <c r="A608" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D608" s="24" t="s">
-        <v>394</v>
+      <c r="B608" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D608" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="E608" s="6">
         <v>1</v>
@@ -10164,8 +10581,8 @@
       <c r="J608" s="9"/>
       <c r="K608" s="9"/>
     </row>
-    <row r="609" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D609" s="24"/>
+    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D609" s="27"/>
       <c r="E609" s="6">
         <v>2</v>
       </c>
@@ -10181,251 +10598,634 @@
       <c r="J609" s="9"/>
       <c r="K609" s="9"/>
     </row>
-    <row r="610" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D610" s="24"/>
+    <row r="610" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D610" s="27"/>
       <c r="E610" s="6">
         <v>3</v>
       </c>
       <c r="F610" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G610" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J610" s="9"/>
       <c r="K610" s="9"/>
     </row>
-    <row r="611" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D611" s="24"/>
+    <row r="611" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D611" s="27"/>
       <c r="E611" s="6">
         <v>4</v>
       </c>
       <c r="F611" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G611" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J611" s="9"/>
       <c r="K611" s="9"/>
     </row>
-    <row r="612" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D612" s="24"/>
+    <row r="612" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D612" s="27"/>
       <c r="E612" s="6">
         <v>5</v>
       </c>
       <c r="F612" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G612" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J612" s="9"/>
       <c r="K612" s="9"/>
     </row>
-    <row r="613" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D613" s="24"/>
+    <row r="613" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D613" s="27"/>
       <c r="E613" s="6">
         <v>6</v>
       </c>
       <c r="F613" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G613" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J613" s="9"/>
       <c r="K613" s="9"/>
     </row>
-    <row r="614" spans="4:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D614" s="24"/>
+    <row r="614" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D614" s="27"/>
       <c r="E614" s="6">
         <v>7</v>
       </c>
       <c r="F614" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G614" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J614" s="9"/>
       <c r="K614" s="9"/>
     </row>
-    <row r="615" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D615" s="24"/>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D615" s="27"/>
       <c r="E615" s="6">
         <v>8</v>
       </c>
       <c r="F615" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G615" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J615" s="9"/>
       <c r="K615" s="9"/>
     </row>
-    <row r="616" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J616" s="9"/>
       <c r="K616" s="9"/>
     </row>
-    <row r="617" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J617" s="9"/>
       <c r="K617" s="9"/>
     </row>
-    <row r="618" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B618" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C618" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D618" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E618" s="7">
+        <v>1</v>
+      </c>
+      <c r="F618" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G618" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H618" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="J618" s="9"/>
       <c r="K618" s="9"/>
     </row>
-    <row r="619" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C619" s="17"/>
+      <c r="D619" s="27"/>
+      <c r="E619" s="7">
+        <v>2</v>
+      </c>
+      <c r="F619" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G619" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H619" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J619" s="9"/>
       <c r="K619" s="9"/>
     </row>
-    <row r="620" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C620" s="17"/>
+      <c r="D620" s="27"/>
+      <c r="E620" s="7">
+        <v>3</v>
+      </c>
+      <c r="F620" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G620" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="J620" s="9"/>
       <c r="K620" s="9"/>
     </row>
-    <row r="621" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C621" s="17"/>
+      <c r="D621" s="27"/>
+      <c r="E621" s="7">
+        <v>4</v>
+      </c>
+      <c r="F621" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G621" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="J621" s="9"/>
       <c r="K621" s="9"/>
     </row>
-    <row r="622" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C622" s="17"/>
+      <c r="D622" s="27"/>
+      <c r="E622" s="7">
+        <v>5</v>
+      </c>
+      <c r="F622" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G622" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="J622" s="9"/>
       <c r="K622" s="9"/>
     </row>
-    <row r="623" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C623" s="17"/>
+      <c r="D623" s="27"/>
+      <c r="E623" s="7">
+        <v>6</v>
+      </c>
+      <c r="F623" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G623" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="J623" s="9"/>
       <c r="K623" s="9"/>
     </row>
-    <row r="624" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C624" s="17"/>
+      <c r="D624" s="27"/>
+      <c r="E624" s="7">
+        <v>7</v>
+      </c>
+      <c r="F624" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G624" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="J624" s="9"/>
       <c r="K624" s="9"/>
     </row>
-    <row r="625" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C625" s="17"/>
+      <c r="D625" s="27"/>
+      <c r="E625" s="7">
+        <v>8</v>
+      </c>
+      <c r="F625" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G625" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="J625" s="9"/>
       <c r="K625" s="9"/>
     </row>
-    <row r="626" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C626" s="17"/>
+      <c r="D626" s="27"/>
+      <c r="E626" s="7">
+        <v>9</v>
+      </c>
+      <c r="F626" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G626" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="J626" s="9"/>
       <c r="K626" s="9"/>
     </row>
-    <row r="627" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J627" s="9"/>
       <c r="K627" s="9"/>
     </row>
-    <row r="628" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J628" s="9"/>
       <c r="K628" s="9"/>
     </row>
-    <row r="629" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B629" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D629" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E629" s="6">
+        <v>1</v>
+      </c>
+      <c r="F629" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G629" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H629" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="J629" s="9"/>
       <c r="K629" s="9"/>
     </row>
-    <row r="630" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D630" s="27"/>
+      <c r="E630" s="6">
+        <v>2</v>
+      </c>
+      <c r="F630" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G630" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H630" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J630" s="9"/>
       <c r="K630" s="9"/>
     </row>
-    <row r="631" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D631" s="27"/>
+      <c r="E631" s="6">
+        <v>3</v>
+      </c>
+      <c r="F631" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G631" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H631" s="19"/>
       <c r="J631" s="9"/>
       <c r="K631" s="9"/>
     </row>
-    <row r="632" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D632" s="27"/>
+      <c r="E632" s="6">
+        <v>4</v>
+      </c>
+      <c r="F632" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G632" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H632" s="19"/>
       <c r="J632" s="9"/>
       <c r="K632" s="9"/>
     </row>
-    <row r="633" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D633" s="27"/>
+      <c r="E633" s="6">
+        <v>5</v>
+      </c>
+      <c r="F633" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G633" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="J633" s="9"/>
       <c r="K633" s="9"/>
     </row>
-    <row r="634" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="D634" s="27"/>
+      <c r="E634" s="6">
+        <v>6</v>
+      </c>
+      <c r="F634" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G634" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H634" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J634" s="9"/>
       <c r="K634" s="9"/>
     </row>
-    <row r="635" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D635" s="27"/>
+      <c r="E635" s="6">
+        <v>7</v>
+      </c>
+      <c r="F635" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G635" s="7" t="s">
+        <v>424</v>
+      </c>
       <c r="J635" s="9"/>
       <c r="K635" s="9"/>
     </row>
-    <row r="636" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D636" s="27"/>
+      <c r="E636" s="6">
+        <v>8</v>
+      </c>
+      <c r="F636" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G636" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="J636" s="9"/>
       <c r="K636" s="9"/>
     </row>
-    <row r="637" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D637" s="27"/>
+      <c r="E637" s="6">
+        <v>9</v>
+      </c>
+      <c r="F637" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G637" s="7" t="s">
+        <v>417</v>
+      </c>
       <c r="J637" s="9"/>
       <c r="K637" s="9"/>
     </row>
-    <row r="638" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J638" s="9"/>
       <c r="K638" s="9"/>
     </row>
-    <row r="639" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J639" s="9"/>
       <c r="K639" s="9"/>
     </row>
-    <row r="640" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A640" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B640" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D640" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E640" s="6">
+        <v>1</v>
+      </c>
+      <c r="F640" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G640" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H640" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="J640" s="9"/>
       <c r="K640" s="9"/>
     </row>
-    <row r="641" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D641" s="27"/>
+      <c r="E641" s="6">
+        <v>2</v>
+      </c>
+      <c r="F641" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G641" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H641" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J641" s="9"/>
       <c r="K641" s="9"/>
     </row>
-    <row r="642" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D642" s="27"/>
+      <c r="E642" s="6">
+        <v>3</v>
+      </c>
+      <c r="F642" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G642" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H642" s="19"/>
       <c r="J642" s="9"/>
       <c r="K642" s="9"/>
     </row>
-    <row r="643" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D643" s="27"/>
+      <c r="E643" s="6">
+        <v>4</v>
+      </c>
+      <c r="F643" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G643" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H643" s="19"/>
       <c r="J643" s="9"/>
       <c r="K643" s="9"/>
     </row>
-    <row r="644" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D644" s="27"/>
+      <c r="E644" s="6">
+        <v>5</v>
+      </c>
+      <c r="F644" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G644" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="J644" s="9"/>
       <c r="K644" s="9"/>
     </row>
-    <row r="645" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="D645" s="27"/>
+      <c r="E645" s="6">
+        <v>6</v>
+      </c>
+      <c r="F645" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H645" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="J645" s="9"/>
       <c r="K645" s="9"/>
     </row>
-    <row r="646" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D646" s="27"/>
+      <c r="F646" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G646" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="J646" s="9"/>
       <c r="K646" s="9"/>
     </row>
-    <row r="647" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D647" s="27"/>
+      <c r="E647" s="6">
+        <v>8</v>
+      </c>
+      <c r="F647" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G647" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="J647" s="9"/>
       <c r="K647" s="9"/>
     </row>
-    <row r="648" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D648" s="27"/>
+      <c r="E648" s="6">
+        <v>9</v>
+      </c>
+      <c r="F648" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G648" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="J648" s="9"/>
       <c r="K648" s="9"/>
     </row>
-    <row r="649" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J649" s="9"/>
       <c r="K649" s="9"/>
     </row>
-    <row r="650" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J650" s="9"/>
       <c r="K650" s="9"/>
     </row>
-    <row r="651" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B651" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C651" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D651" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="E651" s="6">
+        <v>1</v>
+      </c>
+      <c r="F651" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G651" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H651" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="J651" s="9"/>
       <c r="K651" s="9"/>
     </row>
-    <row r="652" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D652" s="27"/>
+      <c r="E652" s="6">
+        <v>2</v>
+      </c>
+      <c r="F652" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G652" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H652" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J652" s="9"/>
       <c r="K652" s="9"/>
     </row>
-    <row r="653" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D653" s="27"/>
+      <c r="E653" s="6">
+        <v>3</v>
+      </c>
+      <c r="F653" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G653" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="J653" s="9"/>
       <c r="K653" s="9"/>
     </row>
-    <row r="654" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J654" s="9"/>
       <c r="K654" s="9"/>
     </row>
-    <row r="655" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J655" s="9"/>
       <c r="K655" s="9"/>
     </row>
-    <row r="656" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J656" s="9"/>
       <c r="K656" s="9"/>
     </row>
@@ -10689,57 +11489,11 @@
       <c r="K732" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="D50:D60"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="D75:D84"/>
-    <mergeCell ref="D87:D97"/>
-    <mergeCell ref="D100:D111"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="D126:D137"/>
-    <mergeCell ref="D140:D150"/>
-    <mergeCell ref="D153:D163"/>
-    <mergeCell ref="D166:D177"/>
-    <mergeCell ref="D180:D191"/>
-    <mergeCell ref="D194:D204"/>
-    <mergeCell ref="D207:D219"/>
-    <mergeCell ref="D222:D233"/>
-    <mergeCell ref="D236:D247"/>
-    <mergeCell ref="D250:D261"/>
-    <mergeCell ref="D264:D275"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="D282:D284"/>
-    <mergeCell ref="D287:D291"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="D309:D311"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="D322:D327"/>
-    <mergeCell ref="D330:D334"/>
-    <mergeCell ref="D337:D341"/>
-    <mergeCell ref="D344:D348"/>
-    <mergeCell ref="D351:D354"/>
-    <mergeCell ref="D357:D361"/>
-    <mergeCell ref="D364:D370"/>
-    <mergeCell ref="D376:D382"/>
-    <mergeCell ref="D385:D392"/>
-    <mergeCell ref="D395:D402"/>
-    <mergeCell ref="D405:D417"/>
-    <mergeCell ref="D420:D432"/>
-    <mergeCell ref="D436:D450"/>
-    <mergeCell ref="D453:D462"/>
-    <mergeCell ref="D466:D474"/>
-    <mergeCell ref="D477:D487"/>
-    <mergeCell ref="D490:D499"/>
-    <mergeCell ref="D502:D512"/>
+  <mergeCells count="62">
+    <mergeCell ref="D618:D626"/>
+    <mergeCell ref="D629:D637"/>
+    <mergeCell ref="D640:D648"/>
+    <mergeCell ref="D651:D653"/>
     <mergeCell ref="D572:D586"/>
     <mergeCell ref="D589:D605"/>
     <mergeCell ref="D608:D615"/>
@@ -10748,77 +11502,130 @@
     <mergeCell ref="D536:D546"/>
     <mergeCell ref="D549:D557"/>
     <mergeCell ref="D560:D569"/>
+    <mergeCell ref="D453:D462"/>
+    <mergeCell ref="D466:D474"/>
+    <mergeCell ref="D477:D487"/>
+    <mergeCell ref="D490:D499"/>
+    <mergeCell ref="D502:D512"/>
+    <mergeCell ref="D385:D392"/>
+    <mergeCell ref="D395:D402"/>
+    <mergeCell ref="D405:D417"/>
+    <mergeCell ref="D420:D432"/>
+    <mergeCell ref="D436:D450"/>
+    <mergeCell ref="D344:D348"/>
+    <mergeCell ref="D351:D354"/>
+    <mergeCell ref="D357:D361"/>
+    <mergeCell ref="D364:D370"/>
+    <mergeCell ref="D376:D382"/>
+    <mergeCell ref="D309:D311"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="D322:D327"/>
+    <mergeCell ref="D330:D334"/>
+    <mergeCell ref="D337:D341"/>
+    <mergeCell ref="D282:D284"/>
+    <mergeCell ref="D287:D291"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="D222:D233"/>
+    <mergeCell ref="D236:D247"/>
+    <mergeCell ref="D250:D261"/>
+    <mergeCell ref="D264:D275"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="D153:D163"/>
+    <mergeCell ref="D166:D177"/>
+    <mergeCell ref="D180:D191"/>
+    <mergeCell ref="D194:D204"/>
+    <mergeCell ref="D207:D219"/>
+    <mergeCell ref="D87:D97"/>
+    <mergeCell ref="D100:D111"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="D126:D137"/>
+    <mergeCell ref="D140:D150"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="D50:D60"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D19:D25"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J484 C2:C658">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J484 C2:C658" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B19 B28 B39 B50 B63 B75 B87 B100 B114 B126 B140 B153 B166 B180 B194 B207 B222 B236 B250 B264 B278 B282 B287 B294 B300 B305 B309 B314 B322 B330 B337 B344 B351 B357 B364 B376 B385 B395 B405 B420 B436 B453 B466 B477 B490 B502 B515 B526 B536 B549 B560 B572 B589 B608 B618 B629 B640 B651" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J485:J687">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J485:J687" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H20" r:id="rId3"/>
-    <hyperlink ref="H28" r:id="rId4"/>
-    <hyperlink ref="H39" r:id="rId5"/>
-    <hyperlink ref="H50" r:id="rId6"/>
-    <hyperlink ref="H63" r:id="rId7"/>
-    <hyperlink ref="H75" r:id="rId8"/>
-    <hyperlink ref="H87" r:id="rId9"/>
-    <hyperlink ref="H100" r:id="rId10"/>
-    <hyperlink ref="H114" r:id="rId11"/>
-    <hyperlink ref="H126" r:id="rId12"/>
-    <hyperlink ref="H180" r:id="rId13"/>
-    <hyperlink ref="H194" r:id="rId14"/>
-    <hyperlink ref="H207" r:id="rId15"/>
-    <hyperlink ref="H264" r:id="rId16"/>
-    <hyperlink ref="H278" r:id="rId17"/>
-    <hyperlink ref="H282" r:id="rId18"/>
-    <hyperlink ref="H287" r:id="rId19"/>
-    <hyperlink ref="H294" r:id="rId20"/>
-    <hyperlink ref="H300" r:id="rId21"/>
-    <hyperlink ref="H305" r:id="rId22"/>
-    <hyperlink ref="H309" r:id="rId23"/>
-    <hyperlink ref="H314" r:id="rId24"/>
-    <hyperlink ref="H322" r:id="rId25"/>
-    <hyperlink ref="H330" r:id="rId26"/>
-    <hyperlink ref="H337" r:id="rId27"/>
-    <hyperlink ref="H344" r:id="rId28"/>
-    <hyperlink ref="H351" r:id="rId29"/>
-    <hyperlink ref="H357" r:id="rId30"/>
-    <hyperlink ref="H364" r:id="rId31"/>
-    <hyperlink ref="H376" r:id="rId32"/>
-    <hyperlink ref="H385" r:id="rId33"/>
-    <hyperlink ref="H395" r:id="rId34"/>
-    <hyperlink ref="H405" r:id="rId35"/>
-    <hyperlink ref="H420" r:id="rId36"/>
-    <hyperlink ref="H436" r:id="rId37"/>
-    <hyperlink ref="H453" r:id="rId38"/>
-    <hyperlink ref="H466" r:id="rId39"/>
-    <hyperlink ref="H477" r:id="rId40"/>
-    <hyperlink ref="H490" r:id="rId41"/>
-    <hyperlink ref="H502" r:id="rId42"/>
-    <hyperlink ref="H515" r:id="rId43"/>
-    <hyperlink ref="H526" r:id="rId44"/>
-    <hyperlink ref="H536" r:id="rId45"/>
-    <hyperlink ref="H549" r:id="rId46"/>
-    <hyperlink ref="H560" r:id="rId47"/>
-    <hyperlink ref="H572" r:id="rId48"/>
-    <hyperlink ref="H589" r:id="rId49"/>
-    <hyperlink ref="H608" r:id="rId50"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H87" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H100" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H114" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H126" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H180" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H194" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H207" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H264" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H278" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H282" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H287" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H294" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H300" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H305" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H309" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H314" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H322" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H330" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H337" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H344" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H351" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H357" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H364" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H376" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H385" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H395" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H405" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H420" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H436" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H453" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H466" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H477" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H490" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H502" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H515" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H526" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H536" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H549" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H560" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H572" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H589" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H608" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H629" r:id="rId51" xr:uid="{FC5FCCB9-356E-416E-984C-0B47847801CE}"/>
+    <hyperlink ref="H640" r:id="rId52" xr:uid="{CF5E11BA-3D4E-40CA-866D-4576C419BD0C}"/>
+    <hyperlink ref="H651" r:id="rId53" xr:uid="{04145F36-1929-40B4-86B8-A8ECDF90D510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/Test Case/Poornima/Test Case- CAS.xlsx
+++ b/Test Case/Poornima/Test Case- CAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware_git\CentralRepository-Mediware\Test Case\Poornima\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Poornima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8A971-7123-485A-BBAA-FFFBB8809EA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73392631-DC17-4C7C-BA9F-B350BC84DF7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,6 +1685,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1692,9 +1695,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2016,7 +2016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D652" sqref="D652:D654"/>
+      <selection pane="bottomLeft" activeCell="D661" sqref="D661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,14 +2072,14 @@
       <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="O1" s="23"/>
+      <c r="Q1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2091,7 +2091,7 @@
       <c r="C2" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="10">
@@ -2129,7 +2129,7 @@
       <c r="A3" s="11"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="10">
         <v>2</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="10">
         <v>3</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="D5" s="25"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="10">
         <v>4</v>
       </c>
@@ -2214,8 +2214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="D6" s="25"/>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="22"/>
       <c r="E6" s="10">
         <v>5</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="D7" s="25"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="10">
         <v>6</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="C10" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>284</v>
       </c>
       <c r="E10" s="10">
@@ -2290,7 +2290,7 @@
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="10">
         <v>2</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="25"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="10">
         <v>3</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="25"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10">
         <v>4</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="25"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10">
         <v>5</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="25"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="10">
         <v>6</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="25"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="10">
         <v>7</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="C19" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="22" t="s">
         <v>288</v>
       </c>
       <c r="E19" s="10">
@@ -2410,7 +2410,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="25"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="10">
         <v>2</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="25"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="10">
         <v>3</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="25"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="10">
         <v>4</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="25"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="10">
         <v>5</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="25"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="10">
         <v>6</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="25"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="10">
         <v>7</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="25"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="10">
         <v>8</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="C29" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="22" t="s">
         <v>328</v>
       </c>
       <c r="E29" s="10">
@@ -2550,7 +2550,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="25"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="10">
         <v>2</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="25"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="10">
         <v>3</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="25"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="10">
         <v>4</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="25"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="10">
         <v>5</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D34" s="25"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="10">
         <v>6</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="25"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="10">
         <v>7</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D36" s="25"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="10">
         <v>8</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="25"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="10">
         <v>9</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D38" s="25"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="10">
         <v>10</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="C40" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="22" t="s">
         <v>334</v>
       </c>
       <c r="E40" s="10">
@@ -2716,7 +2716,7 @@
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="25"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="10">
         <v>2</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D42" s="25"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="10">
         <v>3</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="25"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="10">
         <v>4</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D44" s="25"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="10">
         <v>5</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D45" s="25"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="10">
         <v>6</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="25"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="10">
         <v>7</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="25"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="10">
         <v>8</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="25"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="10">
         <v>9</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="C51" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="22" t="s">
         <v>337</v>
       </c>
       <c r="E51" s="10">
@@ -2872,7 +2872,7 @@
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D52" s="25"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="10">
         <v>2</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D53" s="25"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="10">
         <v>3</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D54" s="25"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="10">
         <v>4</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D55" s="25"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="10">
         <v>5</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D56" s="25"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="10">
         <v>6</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="25"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="10">
         <v>7</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D58" s="25"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="10">
         <v>8</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D59" s="25"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="10">
         <v>9</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="25"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="10">
         <v>10</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D61" s="25"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="10">
         <v>11</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="C64" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="22" t="s">
         <v>340</v>
       </c>
       <c r="E64" s="10">
@@ -3056,7 +3056,7 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D65" s="25"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="10">
         <v>2</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="25"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="10">
         <v>3</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="K66" s="14"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D67" s="25"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="10">
         <v>4</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="K67" s="14"/>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="25"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="10">
         <v>5</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D69" s="25"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="10">
         <v>6</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D70" s="25"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="10">
         <v>7</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D71" s="25"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="10">
         <v>8</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="25"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="10">
         <v>9</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="K72" s="14"/>
     </row>
     <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D73" s="25"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="10">
         <v>10</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="C76" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="22" t="s">
         <v>342</v>
       </c>
       <c r="E76" s="10">
@@ -3224,7 +3224,7 @@
       <c r="K76" s="14"/>
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="25"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="10">
         <v>2</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="K77" s="14"/>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D78" s="25"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="10">
         <v>3</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="K78" s="14"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D79" s="25"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="10">
         <v>4</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="K79" s="14"/>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="25"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="10">
         <v>5</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="K80" s="14"/>
     </row>
     <row r="81" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D81" s="25"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="10">
         <v>6</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="K81" s="14"/>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D82" s="25"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="10">
         <v>7</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="K82" s="14"/>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D83" s="25"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="10">
         <v>8</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="K83" s="14"/>
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="25"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="10">
         <v>9</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="K84" s="14"/>
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D85" s="25"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="10">
         <v>10</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="C88" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="22" t="s">
         <v>346</v>
       </c>
       <c r="E88" s="10">
@@ -3392,7 +3392,7 @@
       <c r="K88" s="14"/>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D89" s="25"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="10">
         <v>2</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="K89" s="14"/>
     </row>
     <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D90" s="25"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="10">
         <v>3</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="K90" s="14"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D91" s="25"/>
+      <c r="D91" s="22"/>
       <c r="E91" s="10">
         <v>4</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="K91" s="14"/>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D92" s="25"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="10">
         <v>5</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="K92" s="14"/>
     </row>
     <row r="93" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D93" s="25"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="10">
         <v>6</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="K93" s="14"/>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D94" s="25"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="10">
         <v>7</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="K94" s="14"/>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="25"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="10">
         <v>8</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="K95" s="14"/>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="25"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="10">
         <v>9</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="K96" s="14"/>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D97" s="25"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="10">
         <v>10</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="K97" s="14"/>
     </row>
     <row r="98" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D98" s="25"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="10">
         <v>11</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="14"/>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>29</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="C101" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="22" t="s">
         <v>348</v>
       </c>
       <c r="E101" s="10">
@@ -3574,7 +3574,7 @@
       <c r="K101" s="14"/>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D102" s="25"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="10">
         <v>2</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="K102" s="14"/>
     </row>
     <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D103" s="25"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="10">
         <v>3</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="K103" s="14"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D104" s="25"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="10">
         <v>4</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="K104" s="14"/>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D105" s="25"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="10">
         <v>5</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="K105" s="14"/>
     </row>
     <row r="106" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D106" s="25"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="10">
         <v>6</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="K106" s="14"/>
     </row>
     <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D107" s="25"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="10">
         <v>7</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="K107" s="14"/>
     </row>
     <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D108" s="25"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="10">
         <v>8</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="K108" s="14"/>
     </row>
     <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D109" s="25"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="10">
         <v>9</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D110" s="25"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="10">
         <v>10</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="K110" s="14"/>
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D111" s="25"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="10">
         <v>11</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="K111" s="14"/>
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D112" s="25"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="10">
         <v>12</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="14"/>
     </row>
-    <row r="115" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="C115" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="22" t="s">
         <v>354</v>
       </c>
       <c r="E115" s="10">
@@ -3770,7 +3770,7 @@
       <c r="K115" s="14"/>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D116" s="25"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="10">
         <v>2</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="K116" s="14"/>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D117" s="25"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="10">
         <v>3</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="K117" s="14"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D118" s="25"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="10">
         <v>4</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="K118" s="14"/>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D119" s="25"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="10">
         <v>5</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="K119" s="14"/>
     </row>
     <row r="120" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D120" s="25"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="10">
         <v>6</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="K120" s="14"/>
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D121" s="25"/>
+      <c r="D121" s="22"/>
       <c r="E121" s="10">
         <v>7</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="K121" s="14"/>
     </row>
     <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D122" s="25"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="10">
         <v>8</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="K122" s="14"/>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D123" s="25"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="10">
         <v>9</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="14"/>
     </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>31</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="C127" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="22" t="s">
         <v>357</v>
       </c>
       <c r="E127" s="10">
@@ -3946,7 +3946,7 @@
       <c r="K127" s="14"/>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D128" s="25"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="10">
         <v>2</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="K128" s="14"/>
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D129" s="25"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="10">
         <v>3</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="K129" s="14"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D130" s="25"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="10">
         <v>4</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="K130" s="14"/>
     </row>
     <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D131" s="25"/>
+      <c r="D131" s="22"/>
       <c r="E131" s="10">
         <v>5</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="K131" s="14"/>
     </row>
     <row r="132" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D132" s="25"/>
+      <c r="D132" s="22"/>
       <c r="E132" s="10">
         <v>6</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="K132" s="14"/>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D133" s="25"/>
+      <c r="D133" s="22"/>
       <c r="E133" s="10">
         <v>7</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="K133" s="14"/>
     </row>
     <row r="134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D134" s="25"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="10">
         <v>8</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="K134" s="14"/>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D135" s="25"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="10">
         <v>9</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="K135" s="14"/>
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="25"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="10">
         <v>10</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D137" s="25"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="10">
         <v>11</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="K137" s="14"/>
     </row>
     <row r="138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D138" s="25"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="10">
         <v>12</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="J140" s="9"/>
       <c r="K140" s="14"/>
     </row>
-    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>32</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="C141" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D141" s="25" t="s">
+      <c r="D141" s="22" t="s">
         <v>359</v>
       </c>
       <c r="E141" s="10">
@@ -4142,7 +4142,7 @@
       <c r="K141" s="14"/>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D142" s="25"/>
+      <c r="D142" s="22"/>
       <c r="E142" s="10">
         <v>2</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="K142" s="14"/>
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D143" s="25"/>
+      <c r="D143" s="22"/>
       <c r="E143" s="10">
         <v>3</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="K143" s="14"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D144" s="25"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="10">
         <v>4</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="K144" s="14"/>
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D145" s="25"/>
+      <c r="D145" s="22"/>
       <c r="E145" s="10">
         <v>5</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="K145" s="14"/>
     </row>
     <row r="146" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D146" s="25"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="10">
         <v>6</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="K146" s="14"/>
     </row>
     <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D147" s="25"/>
+      <c r="D147" s="22"/>
       <c r="E147" s="10">
         <v>7</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="K147" s="14"/>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D148" s="25"/>
+      <c r="D148" s="22"/>
       <c r="E148" s="10">
         <v>8</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="K148" s="14"/>
     </row>
     <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D149" s="25"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="10">
         <v>9</v>
       </c>
@@ -4260,7 +4260,7 @@
       <c r="K149" s="14"/>
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D150" s="25"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="10">
         <v>10</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="K150" s="14"/>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D151" s="25"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="10">
         <v>11</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="J153" s="9"/>
       <c r="K153" s="14"/>
     </row>
-    <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>33</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="C154" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="22" t="s">
         <v>361</v>
       </c>
       <c r="E154" s="10">
@@ -4324,7 +4324,7 @@
       <c r="K154" s="14"/>
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D155" s="25"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="10">
         <v>2</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="K155" s="14"/>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D156" s="25"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="10">
         <v>3</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="K156" s="14"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D157" s="25"/>
+      <c r="D157" s="22"/>
       <c r="E157" s="10">
         <v>4</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="K157" s="14"/>
     </row>
     <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D158" s="25"/>
+      <c r="D158" s="22"/>
       <c r="E158" s="10">
         <v>5</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="K158" s="14"/>
     </row>
     <row r="159" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D159" s="25"/>
+      <c r="D159" s="22"/>
       <c r="E159" s="10">
         <v>6</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="K159" s="14"/>
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D160" s="25"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="10">
         <v>7</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="K160" s="14"/>
     </row>
     <row r="161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D161" s="25"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="10">
         <v>8</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="K161" s="14"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="25"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="10">
         <v>9</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="K162" s="14"/>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D163" s="25"/>
+      <c r="D163" s="22"/>
       <c r="E163" s="10">
         <v>10</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="K163" s="14"/>
     </row>
     <row r="164" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D164" s="25"/>
+      <c r="D164" s="22"/>
       <c r="E164" s="10">
         <v>11</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="J166" s="9"/>
       <c r="K166" s="14"/>
     </row>
-    <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>34</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="C167" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D167" s="25" t="s">
+      <c r="D167" s="22" t="s">
         <v>363</v>
       </c>
       <c r="E167" s="10">
@@ -4506,7 +4506,7 @@
       <c r="K167" s="14"/>
     </row>
     <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D168" s="25"/>
+      <c r="D168" s="22"/>
       <c r="E168" s="10">
         <v>2</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="K168" s="14"/>
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D169" s="25"/>
+      <c r="D169" s="22"/>
       <c r="E169" s="10">
         <v>3</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="K169" s="14"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D170" s="25"/>
+      <c r="D170" s="22"/>
       <c r="E170" s="10">
         <v>4</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="K170" s="14"/>
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D171" s="25"/>
+      <c r="D171" s="22"/>
       <c r="E171" s="10">
         <v>5</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="K171" s="14"/>
     </row>
     <row r="172" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D172" s="25"/>
+      <c r="D172" s="22"/>
       <c r="E172" s="10">
         <v>6</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="K172" s="14"/>
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D173" s="25"/>
+      <c r="D173" s="22"/>
       <c r="E173" s="10">
         <v>7</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="K173" s="14"/>
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D174" s="25"/>
+      <c r="D174" s="22"/>
       <c r="E174" s="10">
         <v>8</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="K174" s="14"/>
     </row>
     <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="25"/>
+      <c r="D175" s="22"/>
       <c r="E175" s="10">
         <v>9</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="K175" s="14"/>
     </row>
     <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="25"/>
+      <c r="D176" s="22"/>
       <c r="E176" s="10">
         <v>10</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="K176" s="14"/>
     </row>
     <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D177" s="25"/>
+      <c r="D177" s="22"/>
       <c r="E177" s="10">
         <v>11</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="K177" s="14"/>
     </row>
     <row r="178" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D178" s="25"/>
+      <c r="D178" s="22"/>
       <c r="E178" s="10">
         <v>12</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="J180" s="9"/>
       <c r="K180" s="14"/>
     </row>
-    <row r="181" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>35</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="C181" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D181" s="25" t="s">
+      <c r="D181" s="22" t="s">
         <v>365</v>
       </c>
       <c r="E181" s="10">
@@ -4702,7 +4702,7 @@
       <c r="K181" s="14"/>
     </row>
     <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D182" s="25"/>
+      <c r="D182" s="22"/>
       <c r="E182" s="10">
         <v>2</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="K182" s="14"/>
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D183" s="25"/>
+      <c r="D183" s="22"/>
       <c r="E183" s="10">
         <v>3</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="K183" s="14"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D184" s="25"/>
+      <c r="D184" s="22"/>
       <c r="E184" s="10">
         <v>4</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="K184" s="14"/>
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D185" s="25"/>
+      <c r="D185" s="22"/>
       <c r="E185" s="10">
         <v>5</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="K185" s="14"/>
     </row>
     <row r="186" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D186" s="25"/>
+      <c r="D186" s="22"/>
       <c r="E186" s="10">
         <v>6</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="K186" s="14"/>
     </row>
     <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D187" s="25"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="10">
         <v>7</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="K187" s="14"/>
     </row>
     <row r="188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D188" s="25"/>
+      <c r="D188" s="22"/>
       <c r="E188" s="10">
         <v>8</v>
       </c>
@@ -4806,7 +4806,7 @@
       <c r="K188" s="14"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D189" s="25"/>
+      <c r="D189" s="22"/>
       <c r="E189" s="10">
         <v>9</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="K189" s="14"/>
     </row>
     <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="25"/>
+      <c r="D190" s="22"/>
       <c r="E190" s="10">
         <v>10</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="K190" s="14"/>
     </row>
     <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D191" s="25"/>
+      <c r="D191" s="22"/>
       <c r="E191" s="10">
         <v>11</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="K191" s="14"/>
     </row>
     <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D192" s="25"/>
+      <c r="D192" s="22"/>
       <c r="E192" s="10">
         <v>12</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="J194" s="9"/>
       <c r="K194" s="14"/>
     </row>
-    <row r="195" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>36</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="C195" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D195" s="25" t="s">
+      <c r="D195" s="22" t="s">
         <v>366</v>
       </c>
       <c r="E195" s="10">
@@ -4898,7 +4898,7 @@
       <c r="K195" s="14"/>
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D196" s="25"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="10">
         <v>2</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="K196" s="14"/>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D197" s="25"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="10">
         <v>3</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="K197" s="14"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D198" s="25"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="10">
         <v>4</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="K198" s="14"/>
     </row>
     <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D199" s="25"/>
+      <c r="D199" s="22"/>
       <c r="E199" s="10">
         <v>5</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="K199" s="14"/>
     </row>
     <row r="200" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D200" s="25"/>
+      <c r="D200" s="22"/>
       <c r="E200" s="10">
         <v>6</v>
       </c>
@@ -4974,7 +4974,7 @@
       <c r="K200" s="14"/>
     </row>
     <row r="201" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D201" s="25"/>
+      <c r="D201" s="22"/>
       <c r="E201" s="10">
         <v>7</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="K201" s="14"/>
     </row>
     <row r="202" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D202" s="25"/>
+      <c r="D202" s="22"/>
       <c r="E202" s="10">
         <v>8</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="K202" s="14"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D203" s="25"/>
+      <c r="D203" s="22"/>
       <c r="E203" s="10">
         <v>9</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="K203" s="14"/>
     </row>
     <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D204" s="25"/>
+      <c r="D204" s="22"/>
       <c r="E204" s="10">
         <v>10</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="K204" s="14"/>
     </row>
     <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D205" s="25"/>
+      <c r="D205" s="22"/>
       <c r="E205" s="10">
         <v>11</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="J207" s="9"/>
       <c r="K207" s="14"/>
     </row>
-    <row r="208" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>37</v>
       </c>
@@ -5061,7 +5061,7 @@
       <c r="C208" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D208" s="25" t="s">
+      <c r="D208" s="22" t="s">
         <v>367</v>
       </c>
       <c r="E208" s="10">
@@ -5080,7 +5080,7 @@
       <c r="K208" s="14"/>
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D209" s="25"/>
+      <c r="D209" s="22"/>
       <c r="E209" s="10">
         <v>2</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="K209" s="14"/>
     </row>
     <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D210" s="25"/>
+      <c r="D210" s="22"/>
       <c r="E210" s="10">
         <v>3</v>
       </c>
@@ -5111,7 +5111,7 @@
       <c r="K210" s="14"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D211" s="25"/>
+      <c r="D211" s="22"/>
       <c r="E211" s="10">
         <v>4</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="K211" s="14"/>
     </row>
     <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D212" s="25"/>
+      <c r="D212" s="22"/>
       <c r="E212" s="10">
         <v>5</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="K212" s="14"/>
     </row>
     <row r="213" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D213" s="25"/>
+      <c r="D213" s="22"/>
       <c r="E213" s="10">
         <v>6</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="K213" s="14"/>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D214" s="25"/>
+      <c r="D214" s="22"/>
       <c r="E214" s="10">
         <v>7</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="K214" s="14"/>
     </row>
     <row r="215" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D215" s="25"/>
+      <c r="D215" s="22"/>
       <c r="E215" s="10">
         <v>8</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="K215" s="14"/>
     </row>
     <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D216" s="25"/>
+      <c r="D216" s="22"/>
       <c r="E216" s="10">
         <v>9</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="K216" s="14"/>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D217" s="25"/>
+      <c r="D217" s="22"/>
       <c r="E217" s="10">
         <v>10</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="K217" s="14"/>
     </row>
     <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="25"/>
+      <c r="D218" s="22"/>
       <c r="E218" s="10">
         <v>11</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="K218" s="14"/>
     </row>
     <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D219" s="25"/>
+      <c r="D219" s="22"/>
       <c r="E219" s="10">
         <v>12</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="K219" s="14"/>
     </row>
     <row r="220" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D220" s="25"/>
+      <c r="D220" s="22"/>
       <c r="E220" s="10">
         <v>13</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="J222" s="9"/>
       <c r="K222" s="14"/>
     </row>
-    <row r="223" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>38</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="C223" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D223" s="25" t="s">
+      <c r="D223" s="22" t="s">
         <v>368</v>
       </c>
       <c r="E223" s="10">
@@ -5290,7 +5290,7 @@
       <c r="K223" s="14"/>
     </row>
     <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="25"/>
+      <c r="D224" s="22"/>
       <c r="E224" s="10">
         <v>2</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="K224" s="14"/>
     </row>
     <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D225" s="25"/>
+      <c r="D225" s="22"/>
       <c r="E225" s="10">
         <v>3</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="K225" s="14"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D226" s="25"/>
+      <c r="D226" s="22"/>
       <c r="E226" s="10">
         <v>4</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="K226" s="14"/>
     </row>
     <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D227" s="25"/>
+      <c r="D227" s="22"/>
       <c r="E227" s="10">
         <v>5</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="K227" s="14"/>
     </row>
     <row r="228" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D228" s="25"/>
+      <c r="D228" s="22"/>
       <c r="E228" s="10">
         <v>6</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="K228" s="14"/>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D229" s="25"/>
+      <c r="D229" s="22"/>
       <c r="E229" s="10">
         <v>7</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="K229" s="14"/>
     </row>
     <row r="230" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D230" s="25"/>
+      <c r="D230" s="22"/>
       <c r="E230" s="10">
         <v>8</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="K230" s="14"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="25"/>
+      <c r="D231" s="22"/>
       <c r="E231" s="10">
         <v>9</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="K231" s="14"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="25"/>
+      <c r="D232" s="22"/>
       <c r="E232" s="10">
         <v>10</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="K232" s="14"/>
     </row>
     <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D233" s="25"/>
+      <c r="D233" s="22"/>
       <c r="E233" s="10">
         <v>11</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="K233" s="14"/>
     </row>
     <row r="234" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D234" s="25"/>
+      <c r="D234" s="22"/>
       <c r="E234" s="10">
         <v>12</v>
       </c>
@@ -5457,7 +5457,7 @@
       <c r="J236" s="9"/>
       <c r="K236" s="14"/>
     </row>
-    <row r="237" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>39</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="C237" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D237" s="25" t="s">
+      <c r="D237" s="22" t="s">
         <v>369</v>
       </c>
       <c r="E237" s="10">
@@ -5486,7 +5486,7 @@
       <c r="K237" s="14"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D238" s="25"/>
+      <c r="D238" s="22"/>
       <c r="E238" s="10">
         <v>2</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="K238" s="14"/>
     </row>
     <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D239" s="25"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="10">
         <v>3</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="K239" s="14"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D240" s="25"/>
+      <c r="D240" s="22"/>
       <c r="E240" s="10">
         <v>4</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="K240" s="14"/>
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D241" s="25"/>
+      <c r="D241" s="22"/>
       <c r="E241" s="10">
         <v>5</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="K241" s="14"/>
     </row>
     <row r="242" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D242" s="25"/>
+      <c r="D242" s="22"/>
       <c r="E242" s="10">
         <v>6</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="K242" s="14"/>
     </row>
     <row r="243" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D243" s="25"/>
+      <c r="D243" s="22"/>
       <c r="E243" s="10">
         <v>7</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="K243" s="14"/>
     </row>
     <row r="244" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D244" s="25"/>
+      <c r="D244" s="22"/>
       <c r="E244" s="10">
         <v>8</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="K244" s="14"/>
     </row>
     <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D245" s="25"/>
+      <c r="D245" s="22"/>
       <c r="E245" s="10">
         <v>9</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="K245" s="14"/>
     </row>
     <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="25"/>
+      <c r="D246" s="22"/>
       <c r="E246" s="10">
         <v>10</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="K246" s="14"/>
     </row>
     <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D247" s="25"/>
+      <c r="D247" s="22"/>
       <c r="E247" s="10">
         <v>11</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="K247" s="14"/>
     </row>
     <row r="248" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D248" s="25"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="10">
         <v>12</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="J250" s="9"/>
       <c r="K250" s="14"/>
     </row>
-    <row r="251" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>40</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="C251" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D251" s="25" t="s">
+      <c r="D251" s="22" t="s">
         <v>370</v>
       </c>
       <c r="E251" s="10">
@@ -5682,7 +5682,7 @@
       <c r="K251" s="14"/>
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D252" s="25"/>
+      <c r="D252" s="22"/>
       <c r="E252" s="10">
         <v>2</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="K252" s="14"/>
     </row>
     <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D253" s="25"/>
+      <c r="D253" s="22"/>
       <c r="E253" s="10">
         <v>3</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="K253" s="14"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D254" s="25"/>
+      <c r="D254" s="22"/>
       <c r="E254" s="10">
         <v>4</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="K254" s="14"/>
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D255" s="25"/>
+      <c r="D255" s="22"/>
       <c r="E255" s="10">
         <v>5</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="K255" s="14"/>
     </row>
     <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D256" s="25"/>
+      <c r="D256" s="22"/>
       <c r="E256" s="10">
         <v>6</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="K256" s="14"/>
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D257" s="25"/>
+      <c r="D257" s="22"/>
       <c r="E257" s="10">
         <v>7</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="K257" s="14"/>
     </row>
     <row r="258" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D258" s="25"/>
+      <c r="D258" s="22"/>
       <c r="E258" s="10">
         <v>8</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="K258" s="14"/>
     </row>
     <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="25"/>
+      <c r="D259" s="22"/>
       <c r="E259" s="10">
         <v>9</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="K259" s="14"/>
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D260" s="25"/>
+      <c r="D260" s="22"/>
       <c r="E260" s="10">
         <v>10</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="K260" s="14"/>
     </row>
     <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D261" s="25"/>
+      <c r="D261" s="22"/>
       <c r="E261" s="10">
         <v>11</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="K261" s="14"/>
     </row>
     <row r="262" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D262" s="25"/>
+      <c r="D262" s="22"/>
       <c r="E262" s="10">
         <v>12</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="J264" s="9"/>
       <c r="K264" s="14"/>
     </row>
-    <row r="265" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
         <v>41</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="C265" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D265" s="25" t="s">
+      <c r="D265" s="22" t="s">
         <v>371</v>
       </c>
       <c r="E265" s="10">
@@ -5878,7 +5878,7 @@
       <c r="K265" s="14"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="25"/>
+      <c r="D266" s="22"/>
       <c r="E266" s="10">
         <v>2</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="K266" s="14"/>
     </row>
     <row r="267" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D267" s="25"/>
+      <c r="D267" s="22"/>
       <c r="E267" s="10">
         <v>3</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="K267" s="14"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D268" s="25"/>
+      <c r="D268" s="22"/>
       <c r="E268" s="10">
         <v>4</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="K268" s="14"/>
     </row>
     <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D269" s="25"/>
+      <c r="D269" s="22"/>
       <c r="E269" s="10">
         <v>5</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="K269" s="14"/>
     </row>
     <row r="270" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D270" s="25"/>
+      <c r="D270" s="22"/>
       <c r="E270" s="10">
         <v>6</v>
       </c>
@@ -5956,7 +5956,7 @@
       <c r="K270" s="14"/>
     </row>
     <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D271" s="25"/>
+      <c r="D271" s="22"/>
       <c r="E271" s="10">
         <v>7</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="K271" s="14"/>
     </row>
     <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D272" s="25"/>
+      <c r="D272" s="22"/>
       <c r="E272" s="10">
         <v>8</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="K272" s="14"/>
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D273" s="25"/>
+      <c r="D273" s="22"/>
       <c r="E273" s="10">
         <v>9</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="K273" s="14"/>
     </row>
     <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="25"/>
+      <c r="D274" s="22"/>
       <c r="E274" s="10">
         <v>10</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="K274" s="14"/>
     </row>
     <row r="275" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D275" s="25"/>
+      <c r="D275" s="22"/>
       <c r="E275" s="10">
         <v>11</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="K275" s="14"/>
     </row>
     <row r="276" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D276" s="25"/>
+      <c r="D276" s="22"/>
       <c r="E276" s="10">
         <v>12</v>
       </c>
@@ -6047,7 +6047,7 @@
       <c r="J278" s="9"/>
       <c r="K278" s="14"/>
     </row>
-    <row r="279" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>42</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="C279" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D279" s="25" t="s">
+      <c r="D279" s="22" t="s">
         <v>372</v>
       </c>
       <c r="E279" s="10">
@@ -6075,8 +6075,8 @@
       <c r="J279" s="9"/>
       <c r="K279" s="14"/>
     </row>
-    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D280" s="25"/>
+    <row r="280" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D280" s="22"/>
       <c r="E280" s="10">
         <v>2</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="J282" s="9"/>
       <c r="K282" s="14"/>
     </row>
-    <row r="283" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>43</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="C283" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D283" s="25" t="s">
+      <c r="D283" s="22" t="s">
         <v>376</v>
       </c>
       <c r="E283" s="10">
@@ -6129,7 +6129,7 @@
       <c r="K283" s="14"/>
     </row>
     <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D284" s="25"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="10">
         <v>2</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="K284" s="14"/>
     </row>
     <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D285" s="25"/>
+      <c r="D285" s="22"/>
       <c r="E285" s="10">
         <v>3</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="J287" s="9"/>
       <c r="K287" s="14"/>
     </row>
-    <row r="288" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>44</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="C288" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D288" s="25" t="s">
+      <c r="D288" s="22" t="s">
         <v>379</v>
       </c>
       <c r="E288" s="10">
@@ -6206,7 +6206,7 @@
       <c r="K288" s="14"/>
     </row>
     <row r="289" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D289" s="25"/>
+      <c r="D289" s="22"/>
       <c r="E289" s="10">
         <v>2</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="K289" s="14"/>
     </row>
     <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D290" s="25"/>
+      <c r="D290" s="22"/>
       <c r="E290" s="10">
         <v>3</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="K290" s="14"/>
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D291" s="25"/>
+      <c r="D291" s="22"/>
       <c r="E291" s="10">
         <v>4</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="K291" s="14"/>
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D292" s="25"/>
+      <c r="D292" s="22"/>
       <c r="E292" s="10">
         <v>4</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="J294" s="9"/>
       <c r="K294" s="14"/>
     </row>
-    <row r="295" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
         <v>45</v>
       </c>
@@ -6283,7 +6283,7 @@
       <c r="C295" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D295" s="25" t="s">
+      <c r="D295" s="22" t="s">
         <v>381</v>
       </c>
       <c r="E295" s="10">
@@ -6302,7 +6302,7 @@
       <c r="K295" s="14"/>
     </row>
     <row r="296" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D296" s="25"/>
+      <c r="D296" s="22"/>
       <c r="E296" s="10">
         <v>2</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="K296" s="14"/>
     </row>
     <row r="297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D297" s="25"/>
+      <c r="D297" s="22"/>
       <c r="E297" s="10">
         <v>3</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="K297" s="14"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D298" s="25"/>
+      <c r="D298" s="22"/>
       <c r="E298" s="10">
         <v>4</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="J300" s="9"/>
       <c r="K300" s="14"/>
     </row>
-    <row r="301" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>46</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="C301" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D301" s="25" t="s">
+      <c r="D301" s="22" t="s">
         <v>386</v>
       </c>
       <c r="E301" s="10">
@@ -6380,8 +6380,8 @@
       <c r="J301" s="9"/>
       <c r="K301" s="14"/>
     </row>
-    <row r="302" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D302" s="25"/>
+    <row r="302" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D302" s="22"/>
       <c r="E302" s="10">
         <v>2</v>
       </c>
@@ -6395,8 +6395,8 @@
       <c r="J302" s="9"/>
       <c r="K302" s="14"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D303" s="25"/>
+    <row r="303" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D303" s="22"/>
       <c r="E303" s="10">
         <v>3</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="C306" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D306" s="25" t="s">
+      <c r="D306" s="22" t="s">
         <v>131</v>
       </c>
       <c r="E306" s="10">
@@ -6446,7 +6446,7 @@
       <c r="K306" s="14"/>
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D307" s="25"/>
+      <c r="D307" s="22"/>
       <c r="E307" s="10">
         <v>2</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="J309" s="9"/>
       <c r="K309" s="14"/>
     </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>48</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="C310" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D310" s="25" t="s">
+      <c r="D310" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E310" s="10">
@@ -6505,7 +6505,7 @@
       <c r="K310" s="14"/>
     </row>
     <row r="311" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D311" s="25"/>
+      <c r="D311" s="22"/>
       <c r="E311" s="10">
         <v>2</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="K311" s="14"/>
     </row>
     <row r="312" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D312" s="25"/>
+      <c r="D312" s="22"/>
       <c r="E312" s="10">
         <v>3</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="J314" s="9"/>
       <c r="K314" s="14"/>
     </row>
-    <row r="315" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
         <v>49</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="C315" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D315" s="25" t="s">
+      <c r="D315" s="22" t="s">
         <v>391</v>
       </c>
       <c r="E315" s="10">
@@ -6572,7 +6572,7 @@
       <c r="K315" s="14"/>
     </row>
     <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D316" s="25"/>
+      <c r="D316" s="22"/>
       <c r="E316" s="10">
         <v>2</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="K316" s="14"/>
     </row>
     <row r="317" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D317" s="25"/>
+      <c r="D317" s="22"/>
       <c r="E317" s="10">
         <v>3</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="K317" s="14"/>
     </row>
     <row r="318" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D318" s="25"/>
+      <c r="D318" s="22"/>
       <c r="E318" s="10">
         <v>4</v>
       </c>
@@ -6617,7 +6617,7 @@
       <c r="K318" s="14"/>
     </row>
     <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D319" s="25"/>
+      <c r="D319" s="22"/>
       <c r="E319" s="10">
         <v>5</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="J322" s="9"/>
       <c r="K322" s="14"/>
     </row>
-    <row r="323" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>50</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="C323" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D323" s="25" t="s">
+      <c r="D323" s="22" t="s">
         <v>395</v>
       </c>
       <c r="E323" s="10">
@@ -6680,7 +6680,7 @@
       <c r="K323" s="14"/>
     </row>
     <row r="324" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D324" s="25"/>
+      <c r="D324" s="22"/>
       <c r="E324" s="10">
         <v>2</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="K324" s="14"/>
     </row>
     <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D325" s="25"/>
+      <c r="D325" s="22"/>
       <c r="E325" s="10">
         <v>3</v>
       </c>
@@ -6711,7 +6711,7 @@
       <c r="K325" s="14"/>
     </row>
     <row r="326" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D326" s="25"/>
+      <c r="D326" s="22"/>
       <c r="E326" s="10">
         <v>4</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="K326" s="14"/>
     </row>
     <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D327" s="25"/>
+      <c r="D327" s="22"/>
       <c r="E327" s="10">
         <v>5</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="K327" s="14"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D328" s="25"/>
+      <c r="D328" s="22"/>
       <c r="E328" s="10">
         <v>6</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="C331" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D331" s="25" t="s">
+      <c r="D331" s="22" t="s">
         <v>307</v>
       </c>
       <c r="E331" s="10">
@@ -6789,7 +6789,7 @@
       <c r="K331" s="14"/>
     </row>
     <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D332" s="25"/>
+      <c r="D332" s="22"/>
       <c r="E332" s="10">
         <v>2</v>
       </c>
@@ -6806,7 +6806,7 @@
       <c r="K332" s="14"/>
     </row>
     <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D333" s="25"/>
+      <c r="D333" s="22"/>
       <c r="E333" s="10">
         <v>3</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="K333" s="14"/>
     </row>
     <row r="334" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D334" s="25"/>
+      <c r="D334" s="22"/>
       <c r="E334" s="10">
         <v>4</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="K334" s="14"/>
     </row>
     <row r="335" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D335" s="25"/>
+      <c r="D335" s="22"/>
       <c r="E335" s="10">
         <v>5</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="C338" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D338" s="25" t="s">
+      <c r="D338" s="22" t="s">
         <v>308</v>
       </c>
       <c r="E338" s="10">
@@ -6884,7 +6884,7 @@
       <c r="K338" s="14"/>
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D339" s="25"/>
+      <c r="D339" s="22"/>
       <c r="E339" s="10">
         <v>2</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="K339" s="14"/>
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D340" s="25"/>
+      <c r="D340" s="22"/>
       <c r="E340" s="10">
         <v>3</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="K340" s="14"/>
     </row>
     <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D341" s="25"/>
+      <c r="D341" s="22"/>
       <c r="E341" s="10">
         <v>4</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="K341" s="14"/>
     </row>
     <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D342" s="25"/>
+      <c r="D342" s="22"/>
       <c r="E342" s="10">
         <v>5</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="C345" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D345" s="25" t="s">
+      <c r="D345" s="22" t="s">
         <v>309</v>
       </c>
       <c r="E345" s="10">
@@ -6982,7 +6982,7 @@
       <c r="K345" s="14"/>
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D346" s="25"/>
+      <c r="D346" s="22"/>
       <c r="E346" s="10">
         <v>2</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="K346" s="14"/>
     </row>
     <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D347" s="25"/>
+      <c r="D347" s="22"/>
       <c r="E347" s="10">
         <v>3</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="K347" s="14"/>
     </row>
     <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D348" s="25"/>
+      <c r="D348" s="22"/>
       <c r="E348" s="10">
         <v>4</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="K348" s="14"/>
     </row>
     <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D349" s="25"/>
+      <c r="D349" s="22"/>
       <c r="E349" s="10">
         <v>5</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="C352" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D352" s="25" t="s">
+      <c r="D352" s="22" t="s">
         <v>157</v>
       </c>
       <c r="E352" s="10">
@@ -7077,7 +7077,7 @@
       <c r="K352" s="14"/>
     </row>
     <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D353" s="25"/>
+      <c r="D353" s="22"/>
       <c r="E353" s="10">
         <v>2</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="K353" s="14"/>
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D354" s="25"/>
+      <c r="D354" s="22"/>
       <c r="E354" s="10">
         <v>3</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c r="K354" s="14"/>
     </row>
     <row r="355" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D355" s="25"/>
+      <c r="D355" s="22"/>
       <c r="E355" s="10">
         <v>4</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="C358" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D358" s="25" t="s">
+      <c r="D358" s="22" t="s">
         <v>160</v>
       </c>
       <c r="E358" s="10">
@@ -7158,7 +7158,7 @@
       <c r="K358" s="14"/>
     </row>
     <row r="359" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D359" s="25"/>
+      <c r="D359" s="22"/>
       <c r="E359" s="10">
         <v>2</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="K359" s="14"/>
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D360" s="25"/>
+      <c r="D360" s="22"/>
       <c r="E360" s="10">
         <v>3</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="K360" s="14"/>
     </row>
     <row r="361" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D361" s="25"/>
+      <c r="D361" s="22"/>
       <c r="E361" s="10">
         <v>4</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="K361" s="14"/>
     </row>
     <row r="362" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D362" s="25"/>
+      <c r="D362" s="22"/>
       <c r="E362" s="10">
         <v>5</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="C365" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D365" s="25" t="s">
+      <c r="D365" s="22" t="s">
         <v>398</v>
       </c>
       <c r="E365" s="10">
@@ -7253,7 +7253,7 @@
       <c r="K365" s="14"/>
     </row>
     <row r="366" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D366" s="25"/>
+      <c r="D366" s="22"/>
       <c r="E366" s="10">
         <v>2</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="K366" s="14"/>
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="25"/>
+      <c r="D367" s="22"/>
       <c r="E367" s="10">
         <v>3</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="K367" s="14"/>
     </row>
     <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D368" s="25"/>
+      <c r="D368" s="22"/>
       <c r="E368" s="10">
         <v>4</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="K368" s="14"/>
     </row>
     <row r="369" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D369" s="25"/>
+      <c r="D369" s="22"/>
       <c r="E369" s="10">
         <v>5</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="K369" s="14"/>
     </row>
     <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D370" s="25"/>
+      <c r="D370" s="22"/>
       <c r="E370" s="10">
         <v>6</v>
       </c>
@@ -7326,7 +7326,7 @@
       <c r="K370" s="14"/>
     </row>
     <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D371" s="25"/>
+      <c r="D371" s="22"/>
       <c r="E371" s="10">
         <v>7</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="C377" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D377" s="25" t="s">
+      <c r="D377" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E377" s="10">
@@ -7415,7 +7415,7 @@
       <c r="K377" s="14"/>
     </row>
     <row r="378" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D378" s="25"/>
+      <c r="D378" s="22"/>
       <c r="E378" s="10">
         <v>2</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="K378" s="14"/>
     </row>
     <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D379" s="25"/>
+      <c r="D379" s="22"/>
       <c r="E379" s="10">
         <v>3</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="K379" s="14"/>
     </row>
     <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D380" s="25"/>
+      <c r="D380" s="22"/>
       <c r="E380" s="10">
         <v>4</v>
       </c>
@@ -7460,7 +7460,7 @@
       <c r="K380" s="14"/>
     </row>
     <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D381" s="25"/>
+      <c r="D381" s="22"/>
       <c r="E381" s="10">
         <v>5</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="K381" s="14"/>
     </row>
     <row r="382" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D382" s="25"/>
+      <c r="D382" s="22"/>
       <c r="E382" s="10">
         <v>6</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="K382" s="14"/>
     </row>
     <row r="383" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D383" s="25"/>
+      <c r="D383" s="22"/>
       <c r="E383" s="10">
         <v>7</v>
       </c>
@@ -7519,7 +7519,7 @@
       <c r="C386" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D386" s="25" t="s">
+      <c r="D386" s="22" t="s">
         <v>312</v>
       </c>
       <c r="E386" s="10">
@@ -7538,7 +7538,7 @@
       <c r="K386" s="14"/>
     </row>
     <row r="387" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D387" s="25"/>
+      <c r="D387" s="22"/>
       <c r="E387" s="10">
         <v>2</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="K387" s="14"/>
     </row>
     <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D388" s="25"/>
+      <c r="D388" s="22"/>
       <c r="E388" s="10">
         <v>3</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="K388" s="14"/>
     </row>
     <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D389" s="25"/>
+      <c r="D389" s="22"/>
       <c r="E389" s="10">
         <v>4</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="K389" s="14"/>
     </row>
     <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D390" s="25"/>
+      <c r="D390" s="22"/>
       <c r="E390" s="10">
         <v>5</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="K390" s="14"/>
     </row>
     <row r="391" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D391" s="25"/>
+      <c r="D391" s="22"/>
       <c r="E391" s="10">
         <v>6</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="K391" s="14"/>
     </row>
     <row r="392" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D392" s="25"/>
+      <c r="D392" s="22"/>
       <c r="E392" s="10">
         <v>7</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="K392" s="14"/>
     </row>
     <row r="393" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="D393" s="25"/>
+      <c r="D393" s="22"/>
       <c r="E393" s="10">
         <v>8</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="C396" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D396" s="25" t="s">
+      <c r="D396" s="22" t="s">
         <v>406</v>
       </c>
       <c r="E396" s="10">
@@ -7675,7 +7675,7 @@
       <c r="K396" s="14"/>
     </row>
     <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D397" s="25"/>
+      <c r="D397" s="22"/>
       <c r="E397" s="10">
         <v>2</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="K397" s="14"/>
     </row>
     <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D398" s="25"/>
+      <c r="D398" s="22"/>
       <c r="E398" s="10">
         <v>3</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="K398" s="14"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D399" s="25"/>
+      <c r="D399" s="22"/>
       <c r="E399" s="10">
         <v>4</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="K399" s="14"/>
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D400" s="25"/>
+      <c r="D400" s="22"/>
       <c r="E400" s="10">
         <v>5</v>
       </c>
@@ -7735,8 +7735,8 @@
       <c r="J400" s="9"/>
       <c r="K400" s="14"/>
     </row>
-    <row r="401" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D401" s="25"/>
+    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D401" s="22"/>
       <c r="E401" s="10">
         <v>6</v>
       </c>
@@ -7753,7 +7753,7 @@
       <c r="K401" s="14"/>
     </row>
     <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D402" s="25"/>
+      <c r="D402" s="22"/>
       <c r="E402" s="10">
         <v>7</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="K402" s="14"/>
     </row>
     <row r="403" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D403" s="25"/>
+      <c r="D403" s="22"/>
       <c r="E403" s="10">
         <v>8</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="C406" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D406" s="25" t="s">
+      <c r="D406" s="22" t="s">
         <v>313</v>
       </c>
       <c r="E406" s="10">
@@ -7820,7 +7820,7 @@
       <c r="K406" s="14"/>
     </row>
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D407" s="25"/>
+      <c r="D407" s="22"/>
       <c r="E407" s="10">
         <v>2</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="K407" s="14"/>
     </row>
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D408" s="25"/>
+      <c r="D408" s="22"/>
       <c r="E408" s="10">
         <v>3</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="K408" s="14"/>
     </row>
     <row r="409" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D409" s="25"/>
+      <c r="D409" s="22"/>
       <c r="E409" s="10">
         <v>4</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="K409" s="14"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D410" s="25"/>
+      <c r="D410" s="22"/>
       <c r="E410" s="10">
         <v>5</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="K410" s="14"/>
     </row>
     <row r="411" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D411" s="25"/>
+      <c r="D411" s="22"/>
       <c r="E411" s="10">
         <v>6</v>
       </c>
@@ -7896,7 +7896,7 @@
       <c r="K411" s="14"/>
     </row>
     <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D412" s="25"/>
+      <c r="D412" s="22"/>
       <c r="E412" s="10">
         <v>7</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="K412" s="14"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D413" s="25"/>
+      <c r="D413" s="22"/>
       <c r="E413" s="10">
         <v>8</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="K413" s="14"/>
     </row>
     <row r="414" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D414" s="25"/>
+      <c r="D414" s="22"/>
       <c r="E414" s="10">
         <v>9</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="K414" s="14"/>
     </row>
     <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D415" s="25"/>
+      <c r="D415" s="22"/>
       <c r="E415" s="10">
         <v>10</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="K415" s="14"/>
     </row>
     <row r="416" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D416" s="25"/>
+      <c r="D416" s="22"/>
       <c r="E416" s="10">
         <v>11</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="K416" s="14"/>
     </row>
     <row r="417" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D417" s="25"/>
+      <c r="D417" s="22"/>
       <c r="E417" s="10">
         <v>12</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="K417" s="14"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D418" s="25"/>
+      <c r="D418" s="22"/>
       <c r="E418" s="10">
         <v>13</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="C421" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D421" s="25" t="s">
+      <c r="D421" s="22" t="s">
         <v>415</v>
       </c>
       <c r="E421" s="10">
@@ -8033,7 +8033,7 @@
       <c r="K421" s="14"/>
     </row>
     <row r="422" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D422" s="25"/>
+      <c r="D422" s="22"/>
       <c r="E422" s="10">
         <v>2</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="K422" s="14"/>
     </row>
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D423" s="25"/>
+      <c r="D423" s="22"/>
       <c r="E423" s="10">
         <v>3</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="K423" s="14"/>
     </row>
     <row r="424" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D424" s="25"/>
+      <c r="D424" s="22"/>
       <c r="E424" s="10">
         <v>4</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="K424" s="14"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D425" s="25"/>
+      <c r="D425" s="22"/>
       <c r="E425" s="10">
         <v>5</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="K425" s="14"/>
     </row>
     <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D426" s="25"/>
+      <c r="D426" s="22"/>
       <c r="E426" s="10">
         <v>6</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="K426" s="14"/>
     </row>
     <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D427" s="25"/>
+      <c r="D427" s="22"/>
       <c r="E427" s="10">
         <v>7</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="K427" s="14"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D428" s="25"/>
+      <c r="D428" s="22"/>
       <c r="E428" s="10">
         <v>8</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="K428" s="14"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D429" s="25"/>
+      <c r="D429" s="22"/>
       <c r="E429" s="10">
         <v>9</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="K429" s="14"/>
     </row>
     <row r="430" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D430" s="25"/>
+      <c r="D430" s="22"/>
       <c r="E430" s="10">
         <v>10</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="K430" s="14"/>
     </row>
     <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D431" s="25"/>
+      <c r="D431" s="22"/>
       <c r="E431" s="10">
         <v>11</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="K431" s="14"/>
     </row>
     <row r="432" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D432" s="25"/>
+      <c r="D432" s="22"/>
       <c r="E432" s="10">
         <v>12</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="K432" s="14"/>
     </row>
     <row r="433" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D433" s="25"/>
+      <c r="D433" s="22"/>
       <c r="E433" s="10">
         <v>13</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="C437" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D437" s="25" t="s">
+      <c r="D437" s="22" t="s">
         <v>316</v>
       </c>
       <c r="E437" s="10">
@@ -8262,7 +8262,7 @@
       <c r="K437" s="14"/>
     </row>
     <row r="438" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D438" s="25"/>
+      <c r="D438" s="22"/>
       <c r="E438" s="10">
         <v>2</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="K438" s="14"/>
     </row>
     <row r="439" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D439" s="25"/>
+      <c r="D439" s="22"/>
       <c r="E439" s="10">
         <v>3</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="K439" s="14"/>
     </row>
     <row r="440" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D440" s="25"/>
+      <c r="D440" s="22"/>
       <c r="E440" s="10">
         <v>4</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="K440" s="14"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D441" s="25"/>
+      <c r="D441" s="22"/>
       <c r="E441" s="10">
         <v>5</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="K441" s="14"/>
     </row>
     <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D442" s="25"/>
+      <c r="D442" s="22"/>
       <c r="E442" s="10">
         <v>6</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="K442" s="14"/>
     </row>
     <row r="443" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D443" s="25"/>
+      <c r="D443" s="22"/>
       <c r="E443" s="10">
         <v>7</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="K443" s="14"/>
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D444" s="25"/>
+      <c r="D444" s="22"/>
       <c r="E444" s="10">
         <v>8</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="K444" s="14"/>
     </row>
     <row r="445" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D445" s="25"/>
+      <c r="D445" s="22"/>
       <c r="E445" s="10">
         <v>9</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="K445" s="14"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D446" s="25"/>
+      <c r="D446" s="22"/>
       <c r="E446" s="10">
         <v>10</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="K446" s="14"/>
     </row>
     <row r="447" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D447" s="25"/>
+      <c r="D447" s="22"/>
       <c r="E447" s="10">
         <v>11</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="K447" s="14"/>
     </row>
     <row r="448" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D448" s="25"/>
+      <c r="D448" s="22"/>
       <c r="E448" s="10">
         <v>12</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="K448" s="14"/>
     </row>
     <row r="449" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D449" s="25"/>
+      <c r="D449" s="22"/>
       <c r="E449" s="10">
         <v>13</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="K449" s="14"/>
     </row>
     <row r="450" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D450" s="25"/>
+      <c r="D450" s="22"/>
       <c r="E450" s="10">
         <v>14</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="K450" s="14"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D451" s="25"/>
+      <c r="D451" s="22"/>
       <c r="E451" s="10">
         <v>15</v>
       </c>
@@ -8484,7 +8484,7 @@
       <c r="C454" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D454" s="25" t="s">
+      <c r="D454" s="22" t="s">
         <v>418</v>
       </c>
       <c r="E454" s="10">
@@ -8503,7 +8503,7 @@
       <c r="K454" s="14"/>
     </row>
     <row r="455" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D455" s="25"/>
+      <c r="D455" s="22"/>
       <c r="E455" s="10">
         <v>2</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="K455" s="14"/>
     </row>
     <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D456" s="25"/>
+      <c r="D456" s="22"/>
       <c r="E456" s="10">
         <v>3</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="K456" s="14"/>
     </row>
     <row r="457" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D457" s="25"/>
+      <c r="D457" s="22"/>
       <c r="E457" s="10">
         <v>4</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="K457" s="14"/>
     </row>
     <row r="458" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D458" s="25"/>
+      <c r="D458" s="22"/>
       <c r="E458" s="10">
         <v>5</v>
       </c>
@@ -8565,7 +8565,7 @@
       <c r="K458" s="14"/>
     </row>
     <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D459" s="25"/>
+      <c r="D459" s="22"/>
       <c r="E459" s="10">
         <v>6</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="K459" s="14"/>
     </row>
     <row r="460" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D460" s="25"/>
+      <c r="D460" s="22"/>
       <c r="E460" s="10">
         <v>7</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="K460" s="14"/>
     </row>
     <row r="461" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D461" s="25"/>
+      <c r="D461" s="22"/>
       <c r="E461" s="10">
         <v>8</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="K461" s="14"/>
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D462" s="25"/>
+      <c r="D462" s="22"/>
       <c r="E462" s="10">
         <v>9</v>
       </c>
@@ -8621,7 +8621,7 @@
       <c r="K462" s="14"/>
     </row>
     <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D463" s="25"/>
+      <c r="D463" s="22"/>
       <c r="E463" s="10">
         <v>10</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="C467" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D467" s="25" t="s">
+      <c r="D467" s="22" t="s">
         <v>317</v>
       </c>
       <c r="E467" s="10">
@@ -8684,7 +8684,7 @@
       <c r="K467" s="14"/>
     </row>
     <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D468" s="25"/>
+      <c r="D468" s="22"/>
       <c r="E468" s="10">
         <v>2</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="K468" s="14"/>
     </row>
     <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D469" s="25"/>
+      <c r="D469" s="22"/>
       <c r="E469" s="10">
         <v>3</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="K469" s="14"/>
     </row>
     <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D470" s="25"/>
+      <c r="D470" s="22"/>
       <c r="E470" s="10">
         <v>4</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="K470" s="14"/>
     </row>
     <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D471" s="25"/>
+      <c r="D471" s="22"/>
       <c r="E471" s="10">
         <v>5</v>
       </c>
@@ -8746,7 +8746,7 @@
       <c r="K471" s="14"/>
     </row>
     <row r="472" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D472" s="25"/>
+      <c r="D472" s="22"/>
       <c r="E472" s="10">
         <v>6</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="K472" s="14"/>
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D473" s="25"/>
+      <c r="D473" s="22"/>
       <c r="E473" s="10">
         <v>7</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="K473" s="14"/>
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D474" s="25"/>
+      <c r="D474" s="22"/>
       <c r="E474" s="10">
         <v>8</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="K474" s="14"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D475" s="25"/>
+      <c r="D475" s="22"/>
       <c r="E475" s="10">
         <v>9</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="C478" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D478" s="25" t="s">
+      <c r="D478" s="22" t="s">
         <v>423</v>
       </c>
       <c r="E478" s="10">
@@ -8838,7 +8838,7 @@
       <c r="K478" s="14"/>
     </row>
     <row r="479" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D479" s="25"/>
+      <c r="D479" s="22"/>
       <c r="E479" s="10">
         <v>2</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="K479" s="14"/>
     </row>
     <row r="480" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D480" s="25"/>
+      <c r="D480" s="22"/>
       <c r="E480" s="10">
         <v>3</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="K480" s="14"/>
     </row>
     <row r="481" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D481" s="25"/>
+      <c r="D481" s="22"/>
       <c r="E481" s="10">
         <v>4</v>
       </c>
@@ -8883,7 +8883,7 @@
       <c r="K481" s="14"/>
     </row>
     <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D482" s="25"/>
+      <c r="D482" s="22"/>
       <c r="E482" s="10">
         <v>5</v>
       </c>
@@ -8897,7 +8897,7 @@
       <c r="K482" s="14"/>
     </row>
     <row r="483" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D483" s="25"/>
+      <c r="D483" s="22"/>
       <c r="E483" s="10">
         <v>6</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="K483" s="14"/>
     </row>
     <row r="484" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D484" s="25"/>
+      <c r="D484" s="22"/>
       <c r="E484" s="10">
         <v>7</v>
       </c>
@@ -8928,7 +8928,7 @@
       <c r="K484" s="14"/>
     </row>
     <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D485" s="25"/>
+      <c r="D485" s="22"/>
       <c r="E485" s="10">
         <v>8</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="K485" s="14"/>
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D486" s="25"/>
+      <c r="D486" s="22"/>
       <c r="E486" s="10">
         <v>9</v>
       </c>
@@ -8956,7 +8956,7 @@
       <c r="K486" s="14"/>
     </row>
     <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D487" s="25"/>
+      <c r="D487" s="22"/>
       <c r="E487" s="10">
         <v>10</v>
       </c>
@@ -8970,7 +8970,7 @@
       <c r="K487" s="14"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D488" s="25"/>
+      <c r="D488" s="22"/>
       <c r="E488" s="10">
         <v>11</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="C491" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D491" s="25" t="s">
+      <c r="D491" s="22" t="s">
         <v>426</v>
       </c>
       <c r="E491" s="10">
@@ -9020,7 +9020,7 @@
       <c r="K491" s="14"/>
     </row>
     <row r="492" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D492" s="25"/>
+      <c r="D492" s="22"/>
       <c r="E492" s="10">
         <v>2</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="K492" s="14"/>
     </row>
     <row r="493" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D493" s="25"/>
+      <c r="D493" s="22"/>
       <c r="E493" s="10">
         <v>3</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="K493" s="14"/>
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D494" s="25"/>
+      <c r="D494" s="22"/>
       <c r="E494" s="10">
         <v>4</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="K494" s="14"/>
     </row>
     <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D495" s="25"/>
+      <c r="D495" s="22"/>
       <c r="E495" s="10">
         <v>5</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="K495" s="14"/>
     </row>
     <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D496" s="25"/>
+      <c r="D496" s="22"/>
       <c r="E496" s="10">
         <v>6</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="K496" s="14"/>
     </row>
     <row r="497" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D497" s="25"/>
+      <c r="D497" s="22"/>
       <c r="E497" s="10">
         <v>7</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="K497" s="14"/>
     </row>
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D498" s="25"/>
+      <c r="D498" s="22"/>
       <c r="E498" s="10">
         <v>8</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="K498" s="14"/>
     </row>
     <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D499" s="25"/>
+      <c r="D499" s="22"/>
       <c r="E499" s="10">
         <v>9</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="K499" s="14"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D500" s="25"/>
+      <c r="D500" s="22"/>
       <c r="E500" s="10">
         <v>10</v>
       </c>
@@ -9169,7 +9169,7 @@
       <c r="C503" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D503" s="25" t="s">
+      <c r="D503" s="22" t="s">
         <v>244</v>
       </c>
       <c r="E503" s="10">
@@ -9188,7 +9188,7 @@
       <c r="K503" s="14"/>
     </row>
     <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D504" s="25"/>
+      <c r="D504" s="22"/>
       <c r="E504" s="10">
         <v>2</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="K504" s="14"/>
     </row>
     <row r="505" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D505" s="25"/>
+      <c r="D505" s="22"/>
       <c r="E505" s="10">
         <v>3</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="K505" s="14"/>
     </row>
     <row r="506" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D506" s="25"/>
+      <c r="D506" s="22"/>
       <c r="E506" s="10">
         <v>4</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="K506" s="14"/>
     </row>
     <row r="507" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D507" s="25"/>
+      <c r="D507" s="22"/>
       <c r="E507" s="10">
         <v>5</v>
       </c>
@@ -9250,7 +9250,7 @@
       <c r="K507" s="14"/>
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D508" s="25"/>
+      <c r="D508" s="22"/>
       <c r="E508" s="10">
         <v>6</v>
       </c>
@@ -9264,7 +9264,7 @@
       <c r="K508" s="14"/>
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D509" s="25"/>
+      <c r="D509" s="22"/>
       <c r="E509" s="10">
         <v>7</v>
       </c>
@@ -9278,7 +9278,7 @@
       <c r="K509" s="14"/>
     </row>
     <row r="510" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D510" s="25"/>
+      <c r="D510" s="22"/>
       <c r="E510" s="10">
         <v>8</v>
       </c>
@@ -9292,7 +9292,7 @@
       <c r="K510" s="14"/>
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D511" s="25"/>
+      <c r="D511" s="22"/>
       <c r="E511" s="10">
         <v>9</v>
       </c>
@@ -9306,7 +9306,7 @@
       <c r="K511" s="14"/>
     </row>
     <row r="512" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D512" s="25"/>
+      <c r="D512" s="22"/>
       <c r="E512" s="10">
         <v>10</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="K512" s="14"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D513" s="25"/>
+      <c r="D513" s="22"/>
       <c r="E513" s="10">
         <v>11</v>
       </c>
@@ -9351,7 +9351,7 @@
       <c r="C516" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D516" s="25" t="s">
+      <c r="D516" s="22" t="s">
         <v>248</v>
       </c>
       <c r="E516" s="10">
@@ -9370,7 +9370,7 @@
       <c r="K516" s="14"/>
     </row>
     <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D517" s="25"/>
+      <c r="D517" s="22"/>
       <c r="E517" s="10">
         <v>2</v>
       </c>
@@ -9387,7 +9387,7 @@
       <c r="K517" s="14"/>
     </row>
     <row r="518" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D518" s="25"/>
+      <c r="D518" s="22"/>
       <c r="E518" s="10">
         <v>3</v>
       </c>
@@ -9401,7 +9401,7 @@
       <c r="K518" s="14"/>
     </row>
     <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D519" s="25"/>
+      <c r="D519" s="22"/>
       <c r="E519" s="10">
         <v>4</v>
       </c>
@@ -9418,7 +9418,7 @@
       <c r="K519" s="14"/>
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D520" s="25"/>
+      <c r="D520" s="22"/>
       <c r="E520" s="10">
         <v>5</v>
       </c>
@@ -9432,7 +9432,7 @@
       <c r="K520" s="14"/>
     </row>
     <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D521" s="25"/>
+      <c r="D521" s="22"/>
       <c r="E521" s="10">
         <v>6</v>
       </c>
@@ -9446,7 +9446,7 @@
       <c r="K521" s="14"/>
     </row>
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D522" s="25"/>
+      <c r="D522" s="22"/>
       <c r="E522" s="10">
         <v>7</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="K522" s="14"/>
     </row>
     <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D523" s="25"/>
+      <c r="D523" s="22"/>
       <c r="E523" s="10">
         <v>8</v>
       </c>
@@ -9474,7 +9474,7 @@
       <c r="K523" s="14"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D524" s="25"/>
+      <c r="D524" s="22"/>
       <c r="E524" s="10">
         <v>9</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="C527" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D527" s="25" t="s">
+      <c r="D527" s="22" t="s">
         <v>430</v>
       </c>
       <c r="E527" s="10">
@@ -9524,7 +9524,7 @@
       <c r="K527" s="14"/>
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D528" s="25"/>
+      <c r="D528" s="22"/>
       <c r="E528" s="10">
         <v>2</v>
       </c>
@@ -9541,7 +9541,7 @@
       <c r="K528" s="14"/>
     </row>
     <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D529" s="25"/>
+      <c r="D529" s="22"/>
       <c r="E529" s="10">
         <v>3</v>
       </c>
@@ -9555,7 +9555,7 @@
       <c r="K529" s="14"/>
     </row>
     <row r="530" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D530" s="25"/>
+      <c r="D530" s="22"/>
       <c r="E530" s="10">
         <v>4</v>
       </c>
@@ -9572,7 +9572,7 @@
       <c r="K530" s="14"/>
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D531" s="25"/>
+      <c r="D531" s="22"/>
       <c r="E531" s="10">
         <v>5</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="K531" s="14"/>
     </row>
     <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D532" s="25"/>
+      <c r="D532" s="22"/>
       <c r="E532" s="10">
         <v>6</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="K532" s="14"/>
     </row>
     <row r="533" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D533" s="25"/>
+      <c r="D533" s="22"/>
       <c r="E533" s="10">
         <v>7</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="K533" s="14"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D534" s="25"/>
+      <c r="D534" s="22"/>
       <c r="E534" s="10">
         <v>8</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="C537" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D537" s="25" t="s">
+      <c r="D537" s="22" t="s">
         <v>434</v>
       </c>
       <c r="E537" s="10">
@@ -9664,7 +9664,7 @@
       <c r="K537" s="14"/>
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D538" s="25"/>
+      <c r="D538" s="22"/>
       <c r="E538" s="10">
         <v>2</v>
       </c>
@@ -9681,7 +9681,7 @@
       <c r="K538" s="14"/>
     </row>
     <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D539" s="25"/>
+      <c r="D539" s="22"/>
       <c r="E539" s="10">
         <v>3</v>
       </c>
@@ -9695,7 +9695,7 @@
       <c r="K539" s="14"/>
     </row>
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D540" s="25"/>
+      <c r="D540" s="22"/>
       <c r="E540" s="10">
         <v>4</v>
       </c>
@@ -9712,7 +9712,7 @@
       <c r="K540" s="14"/>
     </row>
     <row r="541" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D541" s="25"/>
+      <c r="D541" s="22"/>
       <c r="E541" s="10">
         <v>5</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="K541" s="14"/>
     </row>
     <row r="542" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D542" s="25"/>
+      <c r="D542" s="22"/>
       <c r="E542" s="10">
         <v>6</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="K542" s="14"/>
     </row>
     <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D543" s="25"/>
+      <c r="D543" s="22"/>
       <c r="E543" s="10">
         <v>7</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="K543" s="14"/>
     </row>
     <row r="544" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D544" s="25"/>
+      <c r="D544" s="22"/>
       <c r="E544" s="10">
         <v>8</v>
       </c>
@@ -9768,7 +9768,7 @@
       <c r="K544" s="14"/>
     </row>
     <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D545" s="25"/>
+      <c r="D545" s="22"/>
       <c r="E545" s="10">
         <v>9</v>
       </c>
@@ -9782,7 +9782,7 @@
       <c r="K545" s="14"/>
     </row>
     <row r="546" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D546" s="25"/>
+      <c r="D546" s="22"/>
       <c r="E546" s="10">
         <v>10</v>
       </c>
@@ -9796,7 +9796,7 @@
       <c r="K546" s="14"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D547" s="25"/>
+      <c r="D547" s="22"/>
       <c r="E547" s="10">
         <v>11</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="C550" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D550" s="25" t="s">
+      <c r="D550" s="22" t="s">
         <v>438</v>
       </c>
       <c r="E550" s="10">
@@ -9846,7 +9846,7 @@
       <c r="K550" s="14"/>
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D551" s="25"/>
+      <c r="D551" s="22"/>
       <c r="E551" s="10">
         <v>2</v>
       </c>
@@ -9863,7 +9863,7 @@
       <c r="K551" s="14"/>
     </row>
     <row r="552" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D552" s="25"/>
+      <c r="D552" s="22"/>
       <c r="E552" s="10">
         <v>3</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="K552" s="14"/>
     </row>
     <row r="553" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D553" s="25"/>
+      <c r="D553" s="22"/>
       <c r="E553" s="10">
         <v>4</v>
       </c>
@@ -9894,7 +9894,7 @@
       <c r="K553" s="14"/>
     </row>
     <row r="554" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D554" s="25"/>
+      <c r="D554" s="22"/>
       <c r="E554" s="10">
         <v>5</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="K554" s="14"/>
     </row>
     <row r="555" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D555" s="25"/>
+      <c r="D555" s="22"/>
       <c r="E555" s="10">
         <v>6</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="K555" s="14"/>
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D556" s="25"/>
+      <c r="D556" s="22"/>
       <c r="E556" s="10">
         <v>7</v>
       </c>
@@ -9936,7 +9936,7 @@
       <c r="K556" s="14"/>
     </row>
     <row r="557" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D557" s="25"/>
+      <c r="D557" s="22"/>
       <c r="E557" s="10">
         <v>8</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="K557" s="14"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D558" s="25"/>
+      <c r="D558" s="22"/>
       <c r="E558" s="10">
         <v>9</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="C561" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D561" s="25" t="s">
+      <c r="D561" s="22" t="s">
         <v>252</v>
       </c>
       <c r="E561" s="10">
@@ -10000,7 +10000,7 @@
       <c r="K561" s="14"/>
     </row>
     <row r="562" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D562" s="25"/>
+      <c r="D562" s="22"/>
       <c r="E562" s="10">
         <v>2</v>
       </c>
@@ -10017,7 +10017,7 @@
       <c r="K562" s="14"/>
     </row>
     <row r="563" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D563" s="25"/>
+      <c r="D563" s="22"/>
       <c r="E563" s="10">
         <v>3</v>
       </c>
@@ -10031,7 +10031,7 @@
       <c r="K563" s="14"/>
     </row>
     <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D564" s="25"/>
+      <c r="D564" s="22"/>
       <c r="E564" s="10">
         <v>4</v>
       </c>
@@ -10048,7 +10048,7 @@
       <c r="K564" s="14"/>
     </row>
     <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D565" s="25"/>
+      <c r="D565" s="22"/>
       <c r="E565" s="10">
         <v>5</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="K565" s="14"/>
     </row>
     <row r="566" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D566" s="25"/>
+      <c r="D566" s="22"/>
       <c r="E566" s="10">
         <v>6</v>
       </c>
@@ -10076,7 +10076,7 @@
       <c r="K566" s="14"/>
     </row>
     <row r="567" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D567" s="25"/>
+      <c r="D567" s="22"/>
       <c r="E567" s="10">
         <v>7</v>
       </c>
@@ -10090,7 +10090,7 @@
       <c r="K567" s="14"/>
     </row>
     <row r="568" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D568" s="25"/>
+      <c r="D568" s="22"/>
       <c r="E568" s="10">
         <v>8</v>
       </c>
@@ -10104,7 +10104,7 @@
       <c r="K568" s="14"/>
     </row>
     <row r="569" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D569" s="25"/>
+      <c r="D569" s="22"/>
       <c r="E569" s="10">
         <v>9</v>
       </c>
@@ -10118,7 +10118,7 @@
       <c r="K569" s="14"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D570" s="25"/>
+      <c r="D570" s="22"/>
       <c r="E570" s="10">
         <v>10</v>
       </c>
@@ -10149,7 +10149,7 @@
       <c r="C573" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D573" s="25" t="s">
+      <c r="D573" s="22" t="s">
         <v>318</v>
       </c>
       <c r="E573" s="10">
@@ -10168,7 +10168,7 @@
       <c r="K573" s="14"/>
     </row>
     <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D574" s="25"/>
+      <c r="D574" s="22"/>
       <c r="E574" s="10">
         <v>2</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="K574" s="14"/>
     </row>
     <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D575" s="25"/>
+      <c r="D575" s="22"/>
       <c r="E575" s="10">
         <v>3</v>
       </c>
@@ -10199,7 +10199,7 @@
       <c r="K575" s="14"/>
     </row>
     <row r="576" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D576" s="25"/>
+      <c r="D576" s="22"/>
       <c r="E576" s="10">
         <v>4</v>
       </c>
@@ -10216,7 +10216,7 @@
       <c r="K576" s="14"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D577" s="25"/>
+      <c r="D577" s="22"/>
       <c r="E577" s="10">
         <v>5</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="K577" s="14"/>
     </row>
     <row r="578" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D578" s="25"/>
+      <c r="D578" s="22"/>
       <c r="E578" s="10">
         <v>6</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="K578" s="14"/>
     </row>
     <row r="579" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D579" s="25"/>
+      <c r="D579" s="22"/>
       <c r="E579" s="10">
         <v>7</v>
       </c>
@@ -10258,7 +10258,7 @@
       <c r="K579" s="14"/>
     </row>
     <row r="580" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D580" s="25"/>
+      <c r="D580" s="22"/>
       <c r="E580" s="10">
         <v>8</v>
       </c>
@@ -10272,7 +10272,7 @@
       <c r="K580" s="14"/>
     </row>
     <row r="581" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D581" s="25"/>
+      <c r="D581" s="22"/>
       <c r="E581" s="10">
         <v>9</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="K581" s="14"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D582" s="25"/>
+      <c r="D582" s="22"/>
       <c r="E582" s="10">
         <v>10</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="K582" s="14"/>
     </row>
     <row r="583" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D583" s="25"/>
+      <c r="D583" s="22"/>
       <c r="E583" s="10">
         <v>11</v>
       </c>
@@ -10317,7 +10317,7 @@
       <c r="K583" s="14"/>
     </row>
     <row r="584" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D584" s="25"/>
+      <c r="D584" s="22"/>
       <c r="E584" s="10">
         <v>12</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="K584" s="14"/>
     </row>
     <row r="585" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D585" s="25"/>
+      <c r="D585" s="22"/>
       <c r="E585" s="10">
         <v>13</v>
       </c>
@@ -10345,7 +10345,7 @@
       <c r="K585" s="14"/>
     </row>
     <row r="586" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D586" s="25"/>
+      <c r="D586" s="22"/>
       <c r="E586" s="10">
         <v>14</v>
       </c>
@@ -10359,7 +10359,7 @@
       <c r="K586" s="14"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D587" s="25"/>
+      <c r="D587" s="22"/>
       <c r="E587" s="10">
         <v>15</v>
       </c>
@@ -10390,7 +10390,7 @@
       <c r="C590" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D590" s="25" t="s">
+      <c r="D590" s="22" t="s">
         <v>319</v>
       </c>
       <c r="E590" s="10">
@@ -10409,7 +10409,7 @@
       <c r="K590" s="14"/>
     </row>
     <row r="591" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D591" s="25"/>
+      <c r="D591" s="22"/>
       <c r="E591" s="10">
         <v>2</v>
       </c>
@@ -10426,7 +10426,7 @@
       <c r="K591" s="14"/>
     </row>
     <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D592" s="25"/>
+      <c r="D592" s="22"/>
       <c r="E592" s="10">
         <v>3</v>
       </c>
@@ -10440,7 +10440,7 @@
       <c r="K592" s="14"/>
     </row>
     <row r="593" spans="4:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D593" s="25"/>
+      <c r="D593" s="22"/>
       <c r="E593" s="10">
         <v>4</v>
       </c>
@@ -10457,7 +10457,7 @@
       <c r="K593" s="14"/>
     </row>
     <row r="594" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D594" s="25"/>
+      <c r="D594" s="22"/>
       <c r="E594" s="10">
         <v>5</v>
       </c>
@@ -10471,7 +10471,7 @@
       <c r="K594" s="14"/>
     </row>
     <row r="595" spans="4:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D595" s="25"/>
+      <c r="D595" s="22"/>
       <c r="E595" s="10">
         <v>6</v>
       </c>
@@ -10485,7 +10485,7 @@
       <c r="K595" s="14"/>
     </row>
     <row r="596" spans="4:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D596" s="25"/>
+      <c r="D596" s="22"/>
       <c r="E596" s="10">
         <v>7</v>
       </c>
@@ -10499,7 +10499,7 @@
       <c r="K596" s="14"/>
     </row>
     <row r="597" spans="4:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D597" s="25"/>
+      <c r="D597" s="22"/>
       <c r="E597" s="10">
         <v>8</v>
       </c>
@@ -10513,7 +10513,7 @@
       <c r="K597" s="14"/>
     </row>
     <row r="598" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D598" s="25"/>
+      <c r="D598" s="22"/>
       <c r="E598" s="10">
         <v>9</v>
       </c>
@@ -10527,7 +10527,7 @@
       <c r="K598" s="14"/>
     </row>
     <row r="599" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D599" s="25"/>
+      <c r="D599" s="22"/>
       <c r="E599" s="10">
         <v>10</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="K599" s="14"/>
     </row>
     <row r="600" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D600" s="25"/>
+      <c r="D600" s="22"/>
       <c r="E600" s="10">
         <v>11</v>
       </c>
@@ -10555,7 +10555,7 @@
       <c r="K600" s="14"/>
     </row>
     <row r="601" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D601" s="25"/>
+      <c r="D601" s="22"/>
       <c r="E601" s="10">
         <v>12</v>
       </c>
@@ -10569,7 +10569,7 @@
       <c r="K601" s="14"/>
     </row>
     <row r="602" spans="4:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D602" s="25"/>
+      <c r="D602" s="22"/>
       <c r="E602" s="10">
         <v>13</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="K602" s="14"/>
     </row>
     <row r="603" spans="4:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D603" s="25"/>
+      <c r="D603" s="22"/>
       <c r="E603" s="10">
         <v>14</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="K603" s="14"/>
     </row>
     <row r="604" spans="4:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D604" s="25"/>
+      <c r="D604" s="22"/>
       <c r="E604" s="10">
         <v>15</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="K604" s="14"/>
     </row>
     <row r="605" spans="4:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D605" s="25"/>
+      <c r="D605" s="22"/>
       <c r="E605" s="10">
         <v>16</v>
       </c>
@@ -10628,7 +10628,7 @@
       <c r="K605" s="14"/>
     </row>
     <row r="606" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D606" s="25"/>
+      <c r="D606" s="22"/>
       <c r="E606" s="10">
         <v>17</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="C609" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D609" s="25" t="s">
+      <c r="D609" s="22" t="s">
         <v>320</v>
       </c>
       <c r="E609" s="10">
@@ -10678,7 +10678,7 @@
       <c r="K609" s="14"/>
     </row>
     <row r="610" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D610" s="25"/>
+      <c r="D610" s="22"/>
       <c r="E610" s="10">
         <v>2</v>
       </c>
@@ -10695,7 +10695,7 @@
       <c r="K610" s="14"/>
     </row>
     <row r="611" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D611" s="25"/>
+      <c r="D611" s="22"/>
       <c r="E611" s="10">
         <v>3</v>
       </c>
@@ -10709,7 +10709,7 @@
       <c r="K611" s="14"/>
     </row>
     <row r="612" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D612" s="25"/>
+      <c r="D612" s="22"/>
       <c r="E612" s="10">
         <v>4</v>
       </c>
@@ -10723,7 +10723,7 @@
       <c r="K612" s="14"/>
     </row>
     <row r="613" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D613" s="25"/>
+      <c r="D613" s="22"/>
       <c r="E613" s="10">
         <v>5</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="K613" s="14"/>
     </row>
     <row r="614" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D614" s="25"/>
+      <c r="D614" s="22"/>
       <c r="E614" s="10">
         <v>6</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="K614" s="14"/>
     </row>
     <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D615" s="25"/>
+      <c r="D615" s="22"/>
       <c r="E615" s="10">
         <v>7</v>
       </c>
@@ -10765,7 +10765,7 @@
       <c r="K615" s="14"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D616" s="25"/>
+      <c r="D616" s="22"/>
       <c r="E616" s="10">
         <v>8</v>
       </c>
@@ -10796,7 +10796,7 @@
       <c r="C619" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D619" s="25" t="s">
+      <c r="D619" s="22" t="s">
         <v>321</v>
       </c>
       <c r="E619" s="11">
@@ -10816,7 +10816,7 @@
     </row>
     <row r="620" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
-      <c r="D620" s="25"/>
+      <c r="D620" s="22"/>
       <c r="E620" s="11">
         <v>2</v>
       </c>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
-      <c r="D621" s="25"/>
+      <c r="D621" s="22"/>
       <c r="E621" s="11">
         <v>3</v>
       </c>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
-      <c r="D622" s="25"/>
+      <c r="D622" s="22"/>
       <c r="E622" s="11">
         <v>4</v>
       </c>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="623" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
-      <c r="D623" s="25"/>
+      <c r="D623" s="22"/>
       <c r="E623" s="11">
         <v>5</v>
       </c>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="624" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
-      <c r="D624" s="25"/>
+      <c r="D624" s="22"/>
       <c r="E624" s="11">
         <v>6</v>
       </c>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
-      <c r="D625" s="25"/>
+      <c r="D625" s="22"/>
       <c r="E625" s="11">
         <v>7</v>
       </c>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="626" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
-      <c r="D626" s="25"/>
+      <c r="D626" s="22"/>
       <c r="E626" s="11">
         <v>8</v>
       </c>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
-      <c r="D627" s="25"/>
+      <c r="D627" s="22"/>
       <c r="E627" s="11">
         <v>9</v>
       </c>
@@ -10955,7 +10955,7 @@
       <c r="C630" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D630" s="25" t="s">
+      <c r="D630" s="22" t="s">
         <v>443</v>
       </c>
       <c r="E630" s="10">
@@ -10974,7 +10974,7 @@
       <c r="K630" s="14"/>
     </row>
     <row r="631" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D631" s="25"/>
+      <c r="D631" s="22"/>
       <c r="E631" s="10">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="K631" s="14"/>
     </row>
     <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D632" s="25"/>
+      <c r="D632" s="22"/>
       <c r="E632" s="10">
         <v>3</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="K632" s="14"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D633" s="25"/>
+      <c r="D633" s="22"/>
       <c r="E633" s="10">
         <v>4</v>
       </c>
@@ -11021,7 +11021,7 @@
       <c r="K633" s="14"/>
     </row>
     <row r="634" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D634" s="25"/>
+      <c r="D634" s="22"/>
       <c r="E634" s="10">
         <v>5</v>
       </c>
@@ -11035,7 +11035,7 @@
       <c r="K634" s="14"/>
     </row>
     <row r="635" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D635" s="25"/>
+      <c r="D635" s="22"/>
       <c r="E635" s="10">
         <v>6</v>
       </c>
@@ -11052,7 +11052,7 @@
       <c r="K635" s="14"/>
     </row>
     <row r="636" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D636" s="25"/>
+      <c r="D636" s="22"/>
       <c r="E636" s="10">
         <v>7</v>
       </c>
@@ -11066,7 +11066,7 @@
       <c r="K636" s="14"/>
     </row>
     <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D637" s="25"/>
+      <c r="D637" s="22"/>
       <c r="E637" s="10">
         <v>8</v>
       </c>
@@ -11080,7 +11080,7 @@
       <c r="K637" s="14"/>
     </row>
     <row r="638" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D638" s="25"/>
+      <c r="D638" s="22"/>
       <c r="E638" s="10">
         <v>9</v>
       </c>
@@ -11111,7 +11111,7 @@
       <c r="C641" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D641" s="25" t="s">
+      <c r="D641" s="22" t="s">
         <v>448</v>
       </c>
       <c r="E641" s="10">
@@ -11130,7 +11130,7 @@
       <c r="K641" s="14"/>
     </row>
     <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D642" s="25"/>
+      <c r="D642" s="22"/>
       <c r="E642" s="10">
         <v>2</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="K642" s="14"/>
     </row>
     <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D643" s="25"/>
+      <c r="D643" s="22"/>
       <c r="E643" s="10">
         <v>3</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="K643" s="14"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D644" s="25"/>
+      <c r="D644" s="22"/>
       <c r="E644" s="10">
         <v>4</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="K644" s="14"/>
     </row>
     <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D645" s="25"/>
+      <c r="D645" s="22"/>
       <c r="E645" s="10">
         <v>5</v>
       </c>
@@ -11191,7 +11191,7 @@
       <c r="K645" s="14"/>
     </row>
     <row r="646" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="D646" s="25"/>
+      <c r="D646" s="22"/>
       <c r="E646" s="10">
         <v>6</v>
       </c>
@@ -11208,7 +11208,7 @@
       <c r="K646" s="14"/>
     </row>
     <row r="647" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D647" s="25"/>
+      <c r="D647" s="22"/>
       <c r="F647" s="11" t="s">
         <v>277</v>
       </c>
@@ -11219,7 +11219,7 @@
       <c r="K647" s="14"/>
     </row>
     <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D648" s="25"/>
+      <c r="D648" s="22"/>
       <c r="E648" s="10">
         <v>8</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="K648" s="14"/>
     </row>
     <row r="649" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D649" s="25"/>
+      <c r="D649" s="22"/>
       <c r="E649" s="10">
         <v>9</v>
       </c>
@@ -11264,7 +11264,7 @@
       <c r="C652" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D652" s="25" t="s">
+      <c r="D652" s="22" t="s">
         <v>451</v>
       </c>
       <c r="E652" s="10">
@@ -11283,7 +11283,7 @@
       <c r="K652" s="14"/>
     </row>
     <row r="653" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D653" s="25"/>
+      <c r="D653" s="22"/>
       <c r="E653" s="10">
         <v>2</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="K653" s="14"/>
     </row>
     <row r="654" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D654" s="25"/>
+      <c r="D654" s="22"/>
       <c r="E654" s="10">
         <v>3</v>
       </c>
@@ -11586,6 +11586,61 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="D29:D38"/>
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="D51:D61"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="D76:D85"/>
+    <mergeCell ref="D88:D98"/>
+    <mergeCell ref="D101:D112"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="D127:D138"/>
+    <mergeCell ref="D141:D151"/>
+    <mergeCell ref="D154:D164"/>
+    <mergeCell ref="D167:D178"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D195:D205"/>
+    <mergeCell ref="D208:D220"/>
+    <mergeCell ref="D223:D234"/>
+    <mergeCell ref="D237:D248"/>
+    <mergeCell ref="D251:D262"/>
+    <mergeCell ref="D265:D276"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="D288:D292"/>
+    <mergeCell ref="D295:D298"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="D306:D307"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="D315:D319"/>
+    <mergeCell ref="D323:D328"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="D338:D342"/>
+    <mergeCell ref="D345:D349"/>
+    <mergeCell ref="D352:D355"/>
+    <mergeCell ref="D358:D362"/>
+    <mergeCell ref="D365:D371"/>
+    <mergeCell ref="D377:D383"/>
+    <mergeCell ref="D386:D393"/>
+    <mergeCell ref="D396:D403"/>
+    <mergeCell ref="D406:D418"/>
+    <mergeCell ref="D421:D433"/>
+    <mergeCell ref="D437:D451"/>
+    <mergeCell ref="D454:D463"/>
+    <mergeCell ref="D467:D475"/>
+    <mergeCell ref="D478:D488"/>
+    <mergeCell ref="D491:D500"/>
+    <mergeCell ref="D503:D513"/>
+    <mergeCell ref="D516:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D547"/>
+    <mergeCell ref="D550:D558"/>
+    <mergeCell ref="D561:D570"/>
     <mergeCell ref="D619:D627"/>
     <mergeCell ref="D630:D638"/>
     <mergeCell ref="D641:D649"/>
@@ -11593,61 +11648,6 @@
     <mergeCell ref="D573:D587"/>
     <mergeCell ref="D590:D606"/>
     <mergeCell ref="D609:D616"/>
-    <mergeCell ref="D516:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D547"/>
-    <mergeCell ref="D550:D558"/>
-    <mergeCell ref="D561:D570"/>
-    <mergeCell ref="D454:D463"/>
-    <mergeCell ref="D467:D475"/>
-    <mergeCell ref="D478:D488"/>
-    <mergeCell ref="D491:D500"/>
-    <mergeCell ref="D503:D513"/>
-    <mergeCell ref="D386:D393"/>
-    <mergeCell ref="D396:D403"/>
-    <mergeCell ref="D406:D418"/>
-    <mergeCell ref="D421:D433"/>
-    <mergeCell ref="D437:D451"/>
-    <mergeCell ref="D345:D349"/>
-    <mergeCell ref="D352:D355"/>
-    <mergeCell ref="D358:D362"/>
-    <mergeCell ref="D365:D371"/>
-    <mergeCell ref="D377:D383"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="D315:D319"/>
-    <mergeCell ref="D323:D328"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="D338:D342"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="D288:D292"/>
-    <mergeCell ref="D295:D298"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="D306:D307"/>
-    <mergeCell ref="D223:D234"/>
-    <mergeCell ref="D237:D248"/>
-    <mergeCell ref="D251:D262"/>
-    <mergeCell ref="D265:D276"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="D154:D164"/>
-    <mergeCell ref="D167:D178"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D195:D205"/>
-    <mergeCell ref="D208:D220"/>
-    <mergeCell ref="D88:D98"/>
-    <mergeCell ref="D101:D112"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="D127:D138"/>
-    <mergeCell ref="D141:D151"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="D40:D48"/>
-    <mergeCell ref="D51:D61"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="D76:D85"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D19:D26"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J485 C2:C659" xr:uid="{00000000-0002-0000-0000-000000000000}">
